--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -670,10 +670,10 @@
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
         <v>11.5</v>
@@ -691,22 +691,22 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
         <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T2" t="n">
         <v>2.54</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="n">
         <v>110</v>
@@ -736,7 +736,7 @@
         <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>44</v>
@@ -754,10 +754,10 @@
         <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
         <v>18</v>
@@ -766,7 +766,7 @@
         <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>8.4</v>
@@ -829,13 +829,13 @@
         <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
         <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -844,7 +844,7 @@
         <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
         <v>2.24</v>
@@ -856,58 +856,58 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +946,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J4" t="n">
         <v>5.5</v>
@@ -961,28 +961,28 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R4" t="n">
         <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,28 +991,28 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="n">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1036,13 +1036,13 @@
         <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN4" t="n">
         <v>4.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
@@ -1096,7 +1096,7 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1108,7 +1108,7 @@
         <v>1.81</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -1126,16 +1126,16 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
         <v>12</v>
@@ -1144,7 +1144,7 @@
         <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>38</v>
@@ -1159,7 +1159,7 @@
         <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
         <v>27</v>
@@ -1174,10 +1174,10 @@
         <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
         <v>1.87</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
         <v>3.4</v>
@@ -1237,7 +1237,7 @@
         <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1252,7 +1252,7 @@
         <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
         <v>170</v>
@@ -1282,7 +1282,7 @@
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
@@ -1384,7 +1384,7 @@
         <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
         <v>2.2</v>
@@ -1417,10 +1417,10 @@
         <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1492,7 +1492,7 @@
         <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>1.95</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>75</v>
@@ -1636,7 +1636,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
@@ -1645,16 +1645,16 @@
         <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
         <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U9" t="n">
         <v>2.3</v>
@@ -1672,7 +1672,7 @@
         <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
         <v>28</v>
@@ -1681,7 +1681,7 @@
         <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
         <v>11</v>
@@ -1696,7 +1696,7 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
         <v>34</v>
@@ -1714,7 +1714,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO9" t="n">
         <v>15.5</v>
@@ -1762,7 +1762,7 @@
         <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G11" t="n">
         <v>2.42</v>
@@ -1966,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>70</v>
@@ -1984,7 +1984,7 @@
         <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
         <v>70</v>
@@ -2026,7 +2026,7 @@
         <v>1.43</v>
       </c>
       <c r="I12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J12" t="n">
         <v>5.2</v>
@@ -2044,10 +2044,10 @@
         <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
         <v>1.68</v>
@@ -2056,7 +2056,7 @@
         <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T12" t="n">
         <v>1.94</v>
@@ -2155,7 +2155,7 @@
         <v>1.72</v>
       </c>
       <c r="G13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
         <v>5.4</v>
@@ -2182,7 +2182,7 @@
         <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
         <v>1.88</v>
@@ -2212,7 +2212,7 @@
         <v>19.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AA13" t="n">
         <v>170</v>
@@ -2230,7 +2230,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -2320,7 +2320,7 @@
         <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R14" t="n">
         <v>1.47</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G2" t="n">
         <v>1.41</v>
@@ -691,22 +691,22 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
         <v>2.54</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
         <v>110</v>
@@ -757,7 +757,7 @@
         <v>270</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>18</v>
@@ -766,7 +766,7 @@
         <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AN2" t="n">
         <v>8.4</v>
@@ -805,7 +805,7 @@
         <v>2.82</v>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.74</v>
@@ -826,28 +826,28 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,58 +856,58 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.43</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.44</v>
       </c>
       <c r="H4" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -964,25 +964,25 @@
         <v>7.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
         <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,28 +991,28 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB4" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="n">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1036,13 +1036,13 @@
         <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
         <v>4.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
@@ -1108,7 +1108,7 @@
         <v>1.81</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>16</v>
@@ -1150,7 +1150,7 @@
         <v>38</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
@@ -1159,10 +1159,10 @@
         <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK5" t="n">
         <v>22</v>
@@ -1171,10 +1171,10 @@
         <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO5" t="n">
         <v>30</v>
@@ -1237,7 +1237,7 @@
         <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1252,7 +1252,7 @@
         <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.44</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.48</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
@@ -1384,10 +1384,10 @@
         <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G8" t="n">
         <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
@@ -1522,7 +1522,7 @@
         <v>1.95</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>75</v>
@@ -1642,7 +1642,7 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" t="n">
         <v>1.85</v>
@@ -1669,10 +1669,10 @@
         <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA9" t="n">
         <v>28</v>
@@ -1687,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>26</v>
@@ -1699,7 +1699,7 @@
         <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
         <v>75</v>
@@ -1756,7 +1756,7 @@
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -1774,7 +1774,7 @@
         <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
         <v>1.7</v>
@@ -1792,7 +1792,7 @@
         <v>1.99</v>
       </c>
       <c r="U10" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
         <v>24</v>
@@ -1819,13 +1819,13 @@
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE10" t="n">
         <v>50</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1885,7 +1885,7 @@
         <v>2.36</v>
       </c>
       <c r="G11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
         <v>3.7</v>
@@ -1894,10 +1894,10 @@
         <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>11.5</v>
@@ -1960,7 +1960,7 @@
         <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1984,7 +1984,7 @@
         <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
         <v>70</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H12" t="n">
         <v>1.43</v>
@@ -2029,10 +2029,10 @@
         <v>1.45</v>
       </c>
       <c r="J12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
         <v>2.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>1.72</v>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H13" t="n">
         <v>5.4</v>
@@ -2185,7 +2185,7 @@
         <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
         <v>1.42</v>
@@ -2221,7 +2221,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>22</v>
@@ -2293,16 +2293,16 @@
         <v>5.2</v>
       </c>
       <c r="H14" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="I14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
         <v>1.47</v>
@@ -2329,10 +2329,10 @@
         <v>3.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA14" t="n">
         <v>19</v>
@@ -2386,7 +2386,7 @@
         <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
         <v>60</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G2" t="n">
         <v>1.41</v>
@@ -709,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="U2" t="n">
         <v>1.61</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
         <v>44</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -754,10 +754,10 @@
         <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK2" t="n">
         <v>18</v>
@@ -766,7 +766,7 @@
         <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AN2" t="n">
         <v>8.4</v>
@@ -805,7 +805,7 @@
         <v>2.82</v>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H3" t="n">
         <v>2.74</v>
@@ -814,10 +814,10 @@
         <v>2.8</v>
       </c>
       <c r="J3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>3.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
         <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -844,10 +844,10 @@
         <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA3" t="n">
         <v>100</v>
@@ -886,16 +886,16 @@
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
         <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>44</v>
@@ -907,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>1.43</v>
       </c>
       <c r="H4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J4" t="n">
         <v>5.6</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.15</v>
@@ -973,7 +973,7 @@
         <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S4" t="n">
         <v>2.16</v>
@@ -982,7 +982,7 @@
         <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="n">
         <v>40</v>
@@ -1003,7 +1003,7 @@
         <v>260</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1030,7 +1030,7 @@
         <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
         <v>26</v>
@@ -1039,7 +1039,7 @@
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
         <v>85</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
         <v>2.22</v>
@@ -1081,13 +1081,13 @@
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
         <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T5" t="n">
         <v>1.67</v>
@@ -1129,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z5" t="n">
         <v>26</v>
@@ -1234,7 +1234,7 @@
         <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
         <v>1.8</v>
@@ -1246,13 +1246,13 @@
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
         <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>15.5</v>
@@ -1270,10 +1270,10 @@
         <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
@@ -1282,7 +1282,7 @@
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
@@ -1297,7 +1297,7 @@
         <v>100</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1306,7 +1306,7 @@
         <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
@@ -1348,7 +1348,7 @@
         <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I7" t="n">
         <v>2.44</v>
@@ -1372,7 +1372,7 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
         <v>2.02</v>
@@ -1387,7 +1387,7 @@
         <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
         <v>38</v>
@@ -1480,7 +1480,7 @@
         <v>1.89</v>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>4.7</v>
@@ -1510,7 +1510,7 @@
         <v>1.89</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>1.33</v>
@@ -1537,16 +1537,16 @@
         <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="n">
         <v>140</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>19.5</v>
@@ -1555,7 +1555,7 @@
         <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
@@ -1579,10 +1579,10 @@
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1642,7 +1642,7 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
         <v>1.85</v>
@@ -1654,10 +1654,10 @@
         <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
         <v>15.5</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G10" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
         <v>3.55</v>
@@ -1774,7 +1774,7 @@
         <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
         <v>1.7</v>
@@ -1792,7 +1792,7 @@
         <v>1.99</v>
       </c>
       <c r="U10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>24</v>
       </c>
       <c r="AA10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
         <v>8.6</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
         <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="n">
         <v>3.2</v>
@@ -1942,7 +1942,7 @@
         <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
         <v>80</v>
@@ -1984,7 +1984,7 @@
         <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
         <v>70</v>
@@ -2020,19 +2020,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="H12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.43</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.45</v>
       </c>
       <c r="J12" t="n">
         <v>5.1</v>
       </c>
       <c r="K12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S12" t="n">
         <v>2.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -2080,7 +2080,7 @@
         <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
         <v>32</v>
@@ -2095,10 +2095,10 @@
         <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH12" t="n">
         <v>25</v>
@@ -2122,7 +2122,7 @@
         <v>180</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
         <v>5.4</v>
       </c>
       <c r="I13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2191,7 +2191,7 @@
         <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T13" t="n">
         <v>1.86</v>
@@ -2206,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
         <v>19.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA13" t="n">
         <v>170</v>
@@ -2221,7 +2221,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>22</v>
@@ -2230,31 +2230,31 @@
         <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK13" t="n">
         <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO13" t="n">
         <v>85</v>
@@ -2293,7 +2293,7 @@
         <v>5.2</v>
       </c>
       <c r="H14" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I14" t="n">
         <v>1.79</v>
@@ -2344,7 +2344,7 @@
         <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z14" t="n">
         <v>10.5</v>
@@ -2368,7 +2368,7 @@
         <v>40</v>
       </c>
       <c r="AG14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
         <v>19.5</v>
@@ -2377,7 +2377,7 @@
         <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="n">
         <v>65</v>
@@ -2389,7 +2389,7 @@
         <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO14" t="n">
         <v>9.6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="G2" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
         <v>11.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,22 +697,22 @@
         <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T2" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="U2" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z2" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,10 +736,10 @@
         <v>6.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,28 +748,28 @@
         <v>6.8</v>
       </c>
       <c r="AG2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>11</v>
       </c>
-      <c r="AH2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
         <v>390</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         <v>2.82</v>
       </c>
       <c r="G3" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.74</v>
@@ -826,13 +826,13 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q3" t="n">
         <v>2.02</v>
@@ -844,7 +844,7 @@
         <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
         <v>2.18</v>
@@ -862,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA3" t="n">
         <v>100</v>
@@ -871,7 +871,7 @@
         <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
         <v>12.5</v>
@@ -943,10 +943,10 @@
         <v>1.43</v>
       </c>
       <c r="H4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I4" t="n">
         <v>8.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.6</v>
       </c>
       <c r="J4" t="n">
         <v>5.6</v>
@@ -973,16 +973,16 @@
         <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="S4" t="n">
         <v>2.16</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>260</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G5" t="n">
         <v>2.2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.22</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
@@ -1102,13 +1102,13 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
         <v>2.98</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
         <v>5.4</v>
@@ -1234,7 +1234,7 @@
         <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
         <v>1.8</v>
@@ -1252,7 +1252,7 @@
         <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="n">
         <v>180</v>
@@ -1282,7 +1282,7 @@
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
@@ -1348,7 +1348,7 @@
         <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I7" t="n">
         <v>2.44</v>
@@ -1369,7 +1369,7 @@
         <v>3.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
         <v>1.96</v>
@@ -1381,10 +1381,10 @@
         <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
         <v>2.22</v>
@@ -1423,7 +1423,7 @@
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H8" t="n">
         <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
@@ -1504,13 +1504,13 @@
         <v>3.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
         <v>1.89</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
         <v>1.33</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G9" t="n">
         <v>3.55</v>
       </c>
       <c r="H9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.2</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.24</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>3.8</v>
@@ -1669,10 +1669,10 @@
         <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
         <v>28</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G10" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
         <v>1.7</v>
@@ -1804,40 +1804,40 @@
         <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
         <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>50</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK10" t="n">
         <v>32</v>
@@ -1849,10 +1849,10 @@
         <v>160</v>
       </c>
       <c r="AN10" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.85</v>
       </c>
       <c r="J11" t="n">
         <v>3.2</v>
@@ -1909,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P11" t="n">
         <v>1.67</v>
@@ -1924,10 +1924,10 @@
         <v>4.7</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
         <v>16</v>
@@ -1960,13 +1960,13 @@
         <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>70</v>
@@ -1984,10 +1984,10 @@
         <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H12" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.42</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.43</v>
-      </c>
       <c r="J12" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2044,25 +2044,25 @@
         <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
         <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA12" t="n">
         <v>12</v>
@@ -2095,7 +2095,7 @@
         <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
         <v>34</v>
@@ -2122,7 +2122,7 @@
         <v>180</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="13">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H13" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I13" t="n">
         <v>5.8</v>
@@ -2167,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
         <v>1.42</v>
@@ -2209,10 +2209,10 @@
         <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="n">
         <v>170</v>
@@ -2230,7 +2230,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
@@ -2254,7 +2254,7 @@
         <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
         <v>85</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G14" t="n">
         <v>5.2</v>
       </c>
       <c r="H14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.77</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.79</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
@@ -2323,7 +2323,7 @@
         <v>1.84</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
         <v>3.05</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
         <v>9.6</v>
@@ -2350,10 +2350,10 @@
         <v>10.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
         <v>9.199999999999999</v>
@@ -2362,34 +2362,34 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG14" t="n">
         <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK14" t="n">
         <v>65</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
         <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO14" t="n">
         <v>9.6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.38</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.39</v>
-      </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I2" t="n">
         <v>11.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
         <v>2.12</v>
@@ -709,10 +709,10 @@
         <v>3.95</v>
       </c>
       <c r="T2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="U2" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -739,13 +739,13 @@
         <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
@@ -757,7 +757,7 @@
         <v>290</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK2" t="n">
         <v>18.5</v>
@@ -766,10 +766,10 @@
         <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>44</v>
@@ -961,7 +961,7 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.15</v>
@@ -976,13 +976,13 @@
         <v>1.81</v>
       </c>
       <c r="S4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T4" t="n">
         <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO4" t="n">
         <v>85</v>
@@ -1117,7 +1117,7 @@
         <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
         <v>16.5</v>
@@ -1135,7 +1135,7 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="n">
         <v>12</v>
@@ -1156,7 +1156,7 @@
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>50</v>
@@ -1171,7 +1171,7 @@
         <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
         <v>13.5</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.83</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.84</v>
-      </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
         <v>3.65</v>
@@ -1231,10 +1231,10 @@
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
         <v>1.8</v>
@@ -1246,13 +1246,13 @@
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
         <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
         <v>20</v>
@@ -1306,7 +1306,7 @@
         <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
         <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I7" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
@@ -1378,7 +1378,7 @@
         <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
         <v>3.55</v>
@@ -1435,7 +1435,7 @@
         <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
         <v>48</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1480,13 +1480,13 @@
         <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I8" t="n">
         <v>4.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
@@ -1501,13 +1501,13 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
         <v>2.1</v>
@@ -1516,13 +1516,13 @@
         <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
         <v>1.95</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
         <v>8.4</v>
@@ -1549,16 +1549,16 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>22</v>
@@ -1567,22 +1567,22 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
         <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
         <v>2.18</v>
@@ -1651,7 +1651,7 @@
         <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.72</v>
@@ -1675,7 +1675,7 @@
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
@@ -1684,7 +1684,7 @@
         <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -1705,13 +1705,13 @@
         <v>75</v>
       </c>
       <c r="AK9" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
         <v>40</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.54</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.56</v>
       </c>
       <c r="H10" t="n">
         <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>2.36</v>
       </c>
       <c r="R10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
         <v>4.6</v>
@@ -1804,7 +1804,7 @@
         <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
         <v>23</v>
@@ -1828,7 +1828,7 @@
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H11" t="n">
         <v>3.65</v>
@@ -1894,7 +1894,7 @@
         <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
         <v>3.25</v>
@@ -1912,7 +1912,7 @@
         <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="n">
         <v>2.42</v>
@@ -1924,7 +1924,7 @@
         <v>4.7</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
         <v>1.93</v>
@@ -1939,22 +1939,22 @@
         <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
         <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
         <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
         <v>55</v>
@@ -1972,10 +1972,10 @@
         <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
         <v>55</v>
@@ -1984,7 +1984,7 @@
         <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO11" t="n">
         <v>65</v>
@@ -2020,7 +2020,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="H12" t="n">
         <v>1.41</v>
@@ -2044,22 +2044,22 @@
         <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U12" t="n">
         <v>1.99</v>
@@ -2071,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z12" t="n">
         <v>8.800000000000001</v>
@@ -2122,7 +2122,7 @@
         <v>180</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="13">
@@ -2176,16 +2176,16 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
         <v>1.42</v>
@@ -2197,7 +2197,7 @@
         <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
         <v>20</v>
@@ -2227,10 +2227,10 @@
         <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>990</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
@@ -2239,7 +2239,7 @@
         <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
         <v>17.5</v>
@@ -2290,19 +2290,19 @@
         <v>5.1</v>
       </c>
       <c r="G14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H14" t="n">
         <v>1.76</v>
       </c>
       <c r="I14" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
         <v>1.46</v>
@@ -2329,7 +2329,7 @@
         <v>3.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
         <v>2.18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -673,10 +673,10 @@
         <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
         <v>5.3</v>
@@ -691,16 +691,16 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
@@ -712,7 +712,7 @@
         <v>2.62</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -721,25 +721,25 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -751,22 +751,22 @@
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>10.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>7.8</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H3" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I3" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -862,13 +862,13 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA3" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
         <v>7.4</v>
@@ -880,28 +880,28 @@
         <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
         <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>29</v>
@@ -967,22 +967,22 @@
         <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
         <v>2.18</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -997,16 +997,16 @@
         <v>40</v>
       </c>
       <c r="Z4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA4" t="n">
         <v>260</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
         <v>32</v>
@@ -1033,13 +1033,13 @@
         <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM4" t="n">
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
         <v>85</v>
@@ -1084,10 +1084,10 @@
         <v>3.55</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
         <v>1.78</v>
@@ -1114,10 +1114,10 @@
         <v>2.98</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
@@ -1159,25 +1159,25 @@
         <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,40 +1207,40 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
         <v>1.3</v>
@@ -1261,28 +1261,28 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB6" t="n">
         <v>7.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
@@ -1291,28 +1291,28 @@
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.35</v>
       </c>
       <c r="H7" t="n">
         <v>2.44</v>
@@ -1369,7 +1369,7 @@
         <v>3.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
         <v>1.96</v>
@@ -1378,10 +1378,10 @@
         <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T7" t="n">
         <v>1.77</v>
@@ -1399,16 +1399,16 @@
         <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
@@ -1417,37 +1417,37 @@
         <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
         <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
         <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
@@ -1501,10 +1501,10 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
         <v>1.86</v>
@@ -1513,16 +1513,16 @@
         <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
         <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AB8" t="n">
         <v>8.4</v>
@@ -1549,10 +1549,10 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1561,10 +1561,10 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
@@ -1573,16 +1573,16 @@
         <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G9" t="n">
         <v>3.6</v>
       </c>
       <c r="H9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.18</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1645,19 +1645,19 @@
         <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
         <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
         <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,19 +1666,19 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA9" t="n">
         <v>27</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
         <v>8.4</v>
@@ -1690,10 +1690,10 @@
         <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AH9" t="n">
         <v>16.5</v>
@@ -1702,22 +1702,22 @@
         <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1747,37 +1747,37 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
         <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q10" t="n">
         <v>2.36</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.42</v>
       </c>
       <c r="H11" t="n">
         <v>3.65</v>
@@ -1894,7 +1894,7 @@
         <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
         <v>3.25</v>
@@ -1906,13 +1906,13 @@
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O11" t="n">
         <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q11" t="n">
         <v>2.42</v>
@@ -1921,7 +1921,7 @@
         <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T11" t="n">
         <v>2.02</v>
@@ -1939,13 +1939,13 @@
         <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
         <v>8.4</v>
@@ -1954,40 +1954,40 @@
         <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2023,10 +2023,10 @@
         <v>9.6</v>
       </c>
       <c r="H12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.41</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.42</v>
       </c>
       <c r="J12" t="n">
         <v>5.4</v>
@@ -2047,10 +2047,10 @@
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
         <v>1.56</v>
@@ -2059,7 +2059,7 @@
         <v>2.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
         <v>1.99</v>
@@ -2071,58 +2071,58 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
         <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
         <v>5.6</v>
@@ -2176,25 +2176,25 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
         <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U13" t="n">
         <v>2.1</v>
@@ -2206,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
         <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="n">
         <v>170</v>
@@ -2239,7 +2239,7 @@
         <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ13" t="n">
         <v>17.5</v>
@@ -2254,10 +2254,10 @@
         <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2293,10 +2293,10 @@
         <v>5.3</v>
       </c>
       <c r="H14" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
@@ -2344,7 +2344,7 @@
         <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z14" t="n">
         <v>10.5</v>
@@ -2392,7 +2392,7 @@
         <v>70</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -673,7 +673,7 @@
         <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I2" t="n">
         <v>12</v>
@@ -685,7 +685,7 @@
         <v>5.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -715,64 +715,64 @@
         <v>1.58</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AF2" t="n">
         <v>6.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>3.8</v>
@@ -844,19 +844,19 @@
         <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
         <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
@@ -868,46 +868,46 @@
         <v>42</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
         <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>44</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -976,7 +976,7 @@
         <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T4" t="n">
         <v>1.69</v>
@@ -1006,7 +1006,7 @@
         <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
         <v>32</v>
@@ -1036,7 +1036,7 @@
         <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
         <v>4.5</v>
@@ -1114,10 +1114,10 @@
         <v>2.98</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
@@ -1159,25 +1159,25 @@
         <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
         <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
         <v>1.81</v>
@@ -1216,10 +1216,10 @@
         <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1237,7 +1237,7 @@
         <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
         <v>2.18</v>
@@ -1261,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AB6" t="n">
         <v>7.6</v>
@@ -1279,10 +1279,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
@@ -1291,28 +1291,28 @@
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1348,10 +1348,10 @@
         <v>3.3</v>
       </c>
       <c r="H7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.44</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.46</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
@@ -1381,7 +1381,7 @@
         <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
         <v>1.77</v>
@@ -1399,16 +1399,16 @@
         <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
@@ -1417,37 +1417,37 @@
         <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
         <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1501,16 +1501,16 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
         <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
         <v>1.32</v>
@@ -1522,7 +1522,7 @@
         <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
         <v>8.4</v>
@@ -1549,22 +1549,22 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
@@ -1573,16 +1573,16 @@
         <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H9" t="n">
         <v>2.16</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -1678,7 +1678,7 @@
         <v>27</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8.4</v>
@@ -1687,13 +1687,13 @@
         <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>16.5</v>
@@ -1702,22 +1702,22 @@
         <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
         <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.54</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.56</v>
-      </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
         <v>3.4</v>
@@ -1774,13 +1774,13 @@
         <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
         <v>1.69</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
         <v>1.25</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1906,28 +1906,28 @@
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q11" t="n">
         <v>2.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T11" t="n">
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1939,55 +1939,55 @@
         <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2047,19 +2047,19 @@
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T12" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
         <v>1.99</v>
@@ -2071,58 +2071,58 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH12" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.73</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.75</v>
       </c>
       <c r="H13" t="n">
         <v>5.6</v>
       </c>
       <c r="I13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2182,22 +2182,22 @@
         <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
         <v>1.86</v>
       </c>
       <c r="R13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T13" t="n">
         <v>1.85</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
         <v>44</v>
@@ -2227,7 +2227,7 @@
         <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>990</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -2245,7 +2245,7 @@
         <v>17.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
         <v>34</v>
@@ -2257,7 +2257,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="G14" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
         <v>1.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
         <v>1.83</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
         <v>9.800000000000001</v>
@@ -2350,13 +2350,13 @@
         <v>10.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB14" t="n">
         <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>9.800000000000001</v>
@@ -2374,13 +2374,13 @@
         <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
         <v>150</v>
       </c>
       <c r="AK14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL14" t="n">
         <v>70</v>
@@ -2389,10 +2389,10 @@
         <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -679,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K2" t="n">
         <v>5.5</v>
@@ -697,7 +697,7 @@
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
         <v>2.1</v>
@@ -712,13 +712,13 @@
         <v>2.62</v>
       </c>
       <c r="U2" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
         <v>1.09</v>
       </c>
       <c r="W2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="X2" t="n">
         <v>14.5</v>
@@ -730,7 +730,7 @@
         <v>110</v>
       </c>
       <c r="AA2" t="n">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="AB2" t="n">
         <v>6.2</v>
@@ -772,7 +772,7 @@
         <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>1.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -943,10 +943,10 @@
         <v>1.43</v>
       </c>
       <c r="H4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J4" t="n">
         <v>5.6</v>
@@ -955,10 +955,10 @@
         <v>5.7</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>6.8</v>
@@ -970,10 +970,10 @@
         <v>3.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S4" t="n">
         <v>2.16</v>
@@ -982,25 +982,25 @@
         <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="X4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
         <v>40</v>
       </c>
       <c r="Z4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AB4" t="n">
         <v>13.5</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF4" t="n">
         <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1033,16 +1033,16 @@
         <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
         <v>4.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1084,13 +1084,13 @@
         <v>3.55</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1102,13 +1102,13 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
         <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>2.98</v>
@@ -1117,16 +1117,16 @@
         <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
         <v>16.5</v>
@@ -1135,7 +1135,7 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
         <v>12</v>
@@ -1144,13 +1144,13 @@
         <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
@@ -1165,10 +1165,10 @@
         <v>28</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
         <v>70</v>
@@ -1177,7 +1177,7 @@
         <v>13.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1225,10 +1225,10 @@
         <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
         <v>3.4</v>
@@ -1240,7 +1240,7 @@
         <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
         <v>1.3</v>
@@ -1255,22 +1255,22 @@
         <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AB6" t="n">
         <v>7.6</v>
@@ -1279,16 +1279,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>22</v>
@@ -1297,7 +1297,7 @@
         <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>19.5</v>
@@ -1306,13 +1306,13 @@
         <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I7" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
@@ -1360,13 +1360,13 @@
         <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1390,46 +1390,46 @@
         <v>2.22</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
         <v>55</v>
@@ -1438,16 +1438,16 @@
         <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
         <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
@@ -1495,7 +1495,7 @@
         <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1516,7 +1516,7 @@
         <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
         <v>1.96</v>
@@ -1525,64 +1525,64 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
         <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -1654,46 +1654,46 @@
         <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U9" t="n">
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
         <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
         <v>16.5</v>
@@ -1711,13 +1711,13 @@
         <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
         <v>36</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H10" t="n">
         <v>3.35</v>
@@ -1765,7 +1765,7 @@
         <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1795,22 +1795,22 @@
         <v>1.95</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB10" t="n">
         <v>8.800000000000001</v>
@@ -1819,22 +1819,22 @@
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
         <v>36</v>
@@ -1846,13 +1846,13 @@
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1900,7 +1900,7 @@
         <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.11</v>
@@ -1930,22 +1930,22 @@
         <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>24</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="n">
         <v>8.199999999999999</v>
@@ -1954,16 +1954,16 @@
         <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -1972,19 +1972,19 @@
         <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
         <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
         <v>65</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>1.4</v>
@@ -2029,25 +2029,25 @@
         <v>1.41</v>
       </c>
       <c r="J12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
         <v>1.69</v>
@@ -2059,28 +2059,28 @@
         <v>2.72</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="n">
         <v>1.99</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>9.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB12" t="n">
         <v>32</v>
@@ -2089,13 +2089,13 @@
         <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG12" t="n">
         <v>34</v>
@@ -2104,22 +2104,22 @@
         <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AK12" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN12" t="n">
         <v>170</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>210</v>
       </c>
       <c r="AO12" t="n">
         <v>5.7</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H13" t="n">
         <v>5.6</v>
       </c>
       <c r="I13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2170,7 +2170,7 @@
         <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2182,7 +2182,7 @@
         <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
         <v>1.86</v>
@@ -2191,73 +2191,73 @@
         <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U13" t="n">
         <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA13" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AB13" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH13" t="n">
         <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G14" t="n">
         <v>5.4</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5.5</v>
       </c>
       <c r="H14" t="n">
         <v>1.75</v>
@@ -2305,13 +2305,13 @@
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.27</v>
@@ -2320,28 +2320,28 @@
         <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
         <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9.800000000000001</v>
@@ -2350,7 +2350,7 @@
         <v>10.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB14" t="n">
         <v>20</v>
@@ -2359,37 +2359,37 @@
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF14" t="n">
         <v>42</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH14" t="n">
         <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO14" t="n">
         <v>9.199999999999999</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -730,7 +730,7 @@
         <v>110</v>
       </c>
       <c r="AA2" t="n">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="AB2" t="n">
         <v>6.2</v>
@@ -772,7 +772,7 @@
         <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>610</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3">
@@ -901,7 +901,7 @@
         <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
@@ -973,10 +973,10 @@
         <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="S4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.69</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
@@ -1087,10 +1087,10 @@
         <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1123,7 +1123,7 @@
         <v>1.39</v>
       </c>
       <c r="W5" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X5" t="n">
         <v>17.5</v>
@@ -1240,7 +1240,7 @@
         <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
         <v>1.3</v>
@@ -1372,10 +1372,10 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>1.36</v>
@@ -1384,10 +1384,10 @@
         <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
         <v>1.68</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.92</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.94</v>
-      </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
@@ -1525,22 +1525,22 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
         <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
         <v>8.199999999999999</v>
@@ -1549,7 +1549,7 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
         <v>65</v>
@@ -1618,16 +1618,16 @@
         <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.85</v>
       </c>
       <c r="L9" t="n">
         <v>1.34</v>
@@ -1660,13 +1660,13 @@
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W9" t="n">
         <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G10" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H10" t="n">
         <v>3.35</v>
@@ -1765,7 +1765,7 @@
         <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1795,16 +1795,16 @@
         <v>1.95</v>
       </c>
       <c r="V10" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H11" t="n">
         <v>3.65</v>
@@ -1921,19 +1921,19 @@
         <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T11" t="n">
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
         <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X11" t="n">
         <v>9.4</v>
@@ -2035,7 +2035,7 @@
         <v>5.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2062,7 +2062,7 @@
         <v>1.98</v>
       </c>
       <c r="U12" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="V12" t="n">
         <v>3.45</v>
@@ -2110,7 +2110,7 @@
         <v>370</v>
       </c>
       <c r="AK12" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="n">
         <v>120</v>
@@ -2119,7 +2119,7 @@
         <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AO12" t="n">
         <v>5.7</v>
@@ -2170,7 +2170,7 @@
         <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2194,7 +2194,7 @@
         <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U13" t="n">
         <v>2.12</v>
@@ -2221,7 +2221,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>21</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
         <v>1.75</v>
@@ -2305,13 +2305,13 @@
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.27</v>
@@ -2329,13 +2329,13 @@
         <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
         <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W14" t="n">
         <v>1.22</v>
@@ -2356,7 +2356,7 @@
         <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>9.6</v>
@@ -2386,7 +2386,7 @@
         <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
         <v>65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -685,13 +685,13 @@
         <v>5.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
@@ -712,7 +712,7 @@
         <v>2.62</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="V2" t="n">
         <v>1.09</v>
@@ -733,7 +733,7 @@
         <v>730</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -820,13 +820,13 @@
         <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G4" t="n">
         <v>1.43</v>
@@ -955,13 +955,13 @@
         <v>5.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.15</v>
@@ -973,16 +973,16 @@
         <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="T4" t="n">
         <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V4" t="n">
         <v>1.13</v>
@@ -1000,7 +1000,7 @@
         <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB4" t="n">
         <v>13.5</v>
@@ -1009,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="n">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1126,7 +1126,7 @@
         <v>1.82</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
         <v>16.5</v>
@@ -1135,7 +1135,7 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
         <v>12</v>
@@ -1210,7 +1210,7 @@
         <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
@@ -1237,7 +1237,7 @@
         <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
         <v>2.18</v>
@@ -1258,7 +1258,7 @@
         <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1294,7 +1294,7 @@
         <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="n">
         <v>18</v>
@@ -1303,10 +1303,10 @@
         <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
         <v>14</v>
@@ -1360,7 +1360,7 @@
         <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1369,7 +1369,7 @@
         <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
         <v>1.97</v>
@@ -1579,7 +1579,7 @@
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO8" t="n">
         <v>75</v>
@@ -1651,10 +1651,10 @@
         <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
         <v>2.3</v>
@@ -1666,7 +1666,7 @@
         <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -1753,10 +1753,10 @@
         <v>2.58</v>
       </c>
       <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
@@ -1765,7 +1765,7 @@
         <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1801,7 +1801,7 @@
         <v>1.63</v>
       </c>
       <c r="X10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y10" t="n">
         <v>10.5</v>
@@ -1831,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>65</v>
@@ -1852,7 +1852,7 @@
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1900,7 +1900,7 @@
         <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M11" t="n">
         <v>1.11</v>
@@ -1927,7 +1927,7 @@
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
         <v>1.37</v>
@@ -2035,7 +2035,7 @@
         <v>5.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2047,7 +2047,7 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
         <v>1.69</v>
@@ -2110,13 +2110,13 @@
         <v>370</v>
       </c>
       <c r="AK12" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL12" t="n">
         <v>120</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
         <v>160</v>
@@ -2161,7 +2161,7 @@
         <v>5.6</v>
       </c>
       <c r="I13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2182,7 +2182,7 @@
         <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
         <v>1.86</v>
@@ -2197,7 +2197,7 @@
         <v>1.85</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
         <v>1.21</v>
@@ -2293,10 +2293,10 @@
         <v>5.5</v>
       </c>
       <c r="H14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.75</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.76</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
@@ -2311,7 +2311,7 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.27</v>
@@ -2341,7 +2341,7 @@
         <v>1.22</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
         <v>9.800000000000001</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
@@ -700,7 +700,7 @@
         <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
@@ -733,7 +733,7 @@
         <v>730</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G4" t="n">
         <v>1.43</v>
@@ -967,7 +967,7 @@
         <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>1.47</v>
@@ -1009,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>95</v>
@@ -1078,10 +1078,10 @@
         <v>2.22</v>
       </c>
       <c r="H5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.55</v>
       </c>
       <c r="J5" t="n">
         <v>3.8</v>
@@ -1090,13 +1090,13 @@
         <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1120,10 +1120,10 @@
         <v>2.42</v>
       </c>
       <c r="V5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X5" t="n">
         <v>18.5</v>
@@ -1150,7 +1150,7 @@
         <v>36</v>
       </c>
       <c r="AF5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
         <v>70</v>
@@ -1237,10 +1237,10 @@
         <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
         <v>1.3</v>
@@ -1303,7 +1303,7 @@
         <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
         <v>150</v>
@@ -1348,7 +1348,7 @@
         <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I7" t="n">
         <v>2.46</v>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
         <v>3.6</v>
@@ -1438,7 +1438,7 @@
         <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
         <v>90</v>
@@ -1495,7 +1495,7 @@
         <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1579,7 +1579,7 @@
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>75</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.14</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.16</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1630,7 +1630,7 @@
         <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -1660,10 +1660,10 @@
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X9" t="n">
         <v>16</v>
@@ -1690,7 +1690,7 @@
         <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="n">
         <v>14.5</v>
@@ -1702,7 +1702,7 @@
         <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK9" t="n">
         <v>40</v>
@@ -1921,7 +1921,7 @@
         <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T11" t="n">
         <v>2.02</v>
@@ -2056,7 +2056,7 @@
         <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
         <v>1.98</v>
@@ -2107,7 +2107,7 @@
         <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="AK12" t="n">
         <v>140</v>
@@ -2197,7 +2197,7 @@
         <v>1.85</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
         <v>1.21</v>
@@ -2393,6 +2393,141 @@
       </c>
       <c r="AO14" t="n">
         <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CD Olimpia</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CD Marathon</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K15" t="n">
+        <v>950</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.42</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.43</v>
       </c>
       <c r="H4" t="n">
         <v>8.4</v>
@@ -949,10 +949,10 @@
         <v>8.6</v>
       </c>
       <c r="J4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.23</v>
@@ -1009,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
         <v>95</v>
@@ -1147,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
         <v>1.82</v>
       </c>
       <c r="H6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I6" t="n">
         <v>5.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.6</v>
       </c>
       <c r="J6" t="n">
         <v>3.7</v>
@@ -1255,7 +1255,7 @@
         <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
         <v>2.2</v>
@@ -1276,13 +1276,13 @@
         <v>7.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
         <v>9.4</v>
@@ -1300,7 +1300,7 @@
         <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
         <v>44</v>
@@ -1372,10 +1372,10 @@
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R7" t="n">
         <v>1.37</v>
@@ -1387,7 +1387,7 @@
         <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
         <v>1.68</v>
@@ -1438,7 +1438,7 @@
         <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
         <v>90</v>
@@ -1447,7 +1447,7 @@
         <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="8">
@@ -1579,7 +1579,7 @@
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO8" t="n">
         <v>75</v>
@@ -1705,7 +1705,7 @@
         <v>70</v>
       </c>
       <c r="AK9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="n">
         <v>46</v>
@@ -1801,7 +1801,7 @@
         <v>1.63</v>
       </c>
       <c r="X10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>10.5</v>
@@ -1921,7 +1921,7 @@
         <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T11" t="n">
         <v>2.02</v>
@@ -2062,7 +2062,7 @@
         <v>1.98</v>
       </c>
       <c r="U12" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V12" t="n">
         <v>3.45</v>
@@ -2185,7 +2185,7 @@
         <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
         <v>1.44</v>
@@ -2197,7 +2197,7 @@
         <v>1.85</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
         <v>1.21</v>
@@ -2311,7 +2311,7 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.27</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -676,13 +676,13 @@
         <v>11.5</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K2" t="n">
         <v>5.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -700,25 +700,25 @@
         <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
         <v>3.95</v>
       </c>
       <c r="T2" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U2" t="n">
         <v>1.58</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="X2" t="n">
         <v>14.5</v>
@@ -733,7 +733,7 @@
         <v>730</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -751,10 +751,10 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AJ2" t="n">
         <v>10</v>
@@ -766,10 +766,10 @@
         <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
         <v>580</v>
@@ -823,7 +823,7 @@
         <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>3.75</v>
@@ -889,7 +889,7 @@
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
         <v>44</v>
@@ -958,10 +958,10 @@
         <v>1.23</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.15</v>
@@ -973,16 +973,16 @@
         <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V4" t="n">
         <v>1.13</v>
@@ -991,7 +991,7 @@
         <v>3.35</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="n">
         <v>40</v>
@@ -1003,7 +1003,7 @@
         <v>230</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1210,7 +1210,7 @@
         <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
         <v>5.4</v>
@@ -1285,7 +1285,7 @@
         <v>80</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1297,7 +1297,7 @@
         <v>95</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK6" t="n">
         <v>20</v>
@@ -1309,7 +1309,7 @@
         <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO6" t="n">
         <v>120</v>
@@ -1351,7 +1351,7 @@
         <v>2.42</v>
       </c>
       <c r="I7" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
@@ -1366,7 +1366,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
@@ -1375,7 +1375,7 @@
         <v>1.99</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
         <v>1.37</v>
@@ -1390,7 +1390,7 @@
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W7" t="n">
         <v>1.42</v>
@@ -1423,7 +1423,7 @@
         <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
@@ -1501,19 +1501,19 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q8" t="n">
         <v>2.12</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
         <v>3.9</v>
@@ -1531,10 +1531,10 @@
         <v>2.08</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
@@ -1555,7 +1555,7 @@
         <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1576,7 +1576,7 @@
         <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
         <v>14.5</v>
@@ -1642,7 +1642,7 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q9" t="n">
         <v>1.86</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G10" t="n">
         <v>2.58</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
@@ -1774,10 +1774,10 @@
         <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P10" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
         <v>2.38</v>
@@ -1789,19 +1789,19 @@
         <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W10" t="n">
         <v>1.63</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y10" t="n">
         <v>10.5</v>
@@ -1900,7 +1900,7 @@
         <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M11" t="n">
         <v>1.11</v>
@@ -1915,7 +1915,7 @@
         <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
@@ -2029,7 +2029,7 @@
         <v>1.41</v>
       </c>
       <c r="J12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K12" t="n">
         <v>5.6</v>
@@ -2050,7 +2050,7 @@
         <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
         <v>1.55</v>
@@ -2059,10 +2059,10 @@
         <v>2.74</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
         <v>3.45</v>
@@ -2122,7 +2122,7 @@
         <v>160</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="13">
@@ -2167,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.37</v>
@@ -2293,16 +2293,16 @@
         <v>5.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.34</v>
@@ -2311,7 +2311,7 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.27</v>
@@ -2329,13 +2329,13 @@
         <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
         <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="W14" t="n">
         <v>1.22</v>
@@ -2344,7 +2344,7 @@
         <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z14" t="n">
         <v>10.5</v>
@@ -2356,7 +2356,7 @@
         <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>9.6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -670,13 +670,13 @@
         <v>1.37</v>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
         <v>5.3</v>
@@ -685,13 +685,13 @@
         <v>5.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
@@ -709,13 +709,13 @@
         <v>3.95</v>
       </c>
       <c r="T2" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="U2" t="n">
         <v>1.58</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
         <v>3.6</v>
@@ -730,7 +730,7 @@
         <v>110</v>
       </c>
       <c r="AA2" t="n">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="AB2" t="n">
         <v>6.4</v>
@@ -754,10 +754,10 @@
         <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK2" t="n">
         <v>17.5</v>
@@ -769,10 +769,10 @@
         <v>330</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>580</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G3" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H3" t="n">
         <v>2.72</v>
       </c>
       <c r="I3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -820,7 +820,7 @@
         <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -853,7 +853,7 @@
         <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -871,7 +871,7 @@
         <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" t="n">
         <v>12</v>
@@ -892,7 +892,7 @@
         <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="n">
         <v>32</v>
@@ -961,22 +961,22 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q4" t="n">
         <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T4" t="n">
         <v>1.69</v>
@@ -991,7 +991,7 @@
         <v>3.35</v>
       </c>
       <c r="X4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="n">
         <v>40</v>
@@ -1003,7 +1003,7 @@
         <v>230</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1018,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH4" t="n">
         <v>20</v>
@@ -1081,7 +1081,7 @@
         <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
         <v>3.8</v>
@@ -1090,13 +1090,13 @@
         <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1120,7 +1120,7 @@
         <v>2.42</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W5" t="n">
         <v>1.81</v>
@@ -1138,10 +1138,10 @@
         <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>14</v>
@@ -1162,7 +1162,7 @@
         <v>42</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1174,7 +1174,7 @@
         <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>29</v>
@@ -1225,7 +1225,7 @@
         <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
@@ -1246,10 +1246,10 @@
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
@@ -1270,7 +1270,7 @@
         <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB6" t="n">
         <v>7.6</v>
@@ -1291,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>95</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.35</v>
       </c>
       <c r="H7" t="n">
         <v>2.42</v>
@@ -1366,22 +1366,22 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
         <v>1.78</v>
@@ -1393,7 +1393,7 @@
         <v>1.69</v>
       </c>
       <c r="W7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X7" t="n">
         <v>13.5</v>
@@ -1480,7 +1480,7 @@
         <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
         <v>4.7</v>
@@ -1504,16 +1504,16 @@
         <v>3.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
         <v>2.12</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
         <v>3.9</v>
@@ -1579,7 +1579,7 @@
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>75</v>
@@ -1624,13 +1624,13 @@
         <v>2.14</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -1687,13 +1687,13 @@
         <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
         <v>27</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>16.5</v>
@@ -1708,7 +1708,7 @@
         <v>38</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
         <v>80</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G10" t="n">
         <v>2.58</v>
@@ -1756,16 +1756,16 @@
         <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.2</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1780,7 +1780,7 @@
         <v>1.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
         <v>1.25</v>
@@ -1789,7 +1789,7 @@
         <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
         <v>1.94</v>
@@ -1816,7 +1816,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>14.5</v>
@@ -1825,7 +1825,7 @@
         <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1888,19 +1888,19 @@
         <v>2.42</v>
       </c>
       <c r="H11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.2</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.11</v>
@@ -1909,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P11" t="n">
         <v>1.67</v>
@@ -1927,10 +1927,10 @@
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W11" t="n">
         <v>1.7</v>
@@ -2029,10 +2029,10 @@
         <v>1.41</v>
       </c>
       <c r="J12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K12" t="n">
         <v>5.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.32</v>
@@ -2047,10 +2047,10 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
         <v>1.55</v>
@@ -2065,7 +2065,7 @@
         <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="W12" t="n">
         <v>1.11</v>
@@ -2074,7 +2074,7 @@
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z12" t="n">
         <v>8.6</v>
@@ -2161,16 +2161,16 @@
         <v>5.6</v>
       </c>
       <c r="I13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2185,7 +2185,7 @@
         <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
         <v>1.44</v>
@@ -2197,10 +2197,10 @@
         <v>1.85</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
         <v>2.34</v>
@@ -2221,7 +2221,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>21</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G14" t="n">
         <v>5.4</v>
       </c>
-      <c r="G14" t="n">
-        <v>5.5</v>
-      </c>
       <c r="H14" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="J14" t="n">
         <v>4.2</v>
@@ -2305,13 +2305,13 @@
         <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.27</v>
@@ -2335,13 +2335,13 @@
         <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="W14" t="n">
         <v>1.22</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
         <v>9.6</v>
@@ -2356,7 +2356,7 @@
         <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>9.6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -670,7 +670,7 @@
         <v>1.37</v>
       </c>
       <c r="G2" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
         <v>11</v>
@@ -679,10 +679,10 @@
         <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -709,7 +709,7 @@
         <v>3.95</v>
       </c>
       <c r="T2" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="U2" t="n">
         <v>1.58</v>
@@ -718,13 +718,13 @@
         <v>1.09</v>
       </c>
       <c r="W2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="X2" t="n">
         <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
         <v>110</v>
@@ -808,22 +808,22 @@
         <v>2.94</v>
       </c>
       <c r="H3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I3" t="n">
         <v>2.76</v>
       </c>
       <c r="J3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>3.75</v>
@@ -844,13 +844,13 @@
         <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W3" t="n">
         <v>1.51</v>
@@ -868,7 +868,7 @@
         <v>42</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
         <v>7.2</v>
@@ -970,19 +970,19 @@
         <v>3.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V4" t="n">
         <v>1.13</v>
@@ -1009,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>95</v>
@@ -1018,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>20</v>
@@ -1075,13 +1075,13 @@
         <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H5" t="n">
         <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>3.8</v>
@@ -1090,13 +1090,13 @@
         <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1120,7 +1120,7 @@
         <v>2.42</v>
       </c>
       <c r="V5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
         <v>1.81</v>
@@ -1138,16 +1138,16 @@
         <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
         <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G6" t="n">
         <v>1.83</v>
@@ -1246,13 +1246,13 @@
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
         <v>1.22</v>
@@ -1294,7 +1294,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ6" t="n">
         <v>18.5</v>
@@ -1303,7 +1303,7 @@
         <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
         <v>150</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
         <v>2.42</v>
@@ -1372,7 +1372,7 @@
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
@@ -1393,7 +1393,7 @@
         <v>1.69</v>
       </c>
       <c r="W7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X7" t="n">
         <v>13.5</v>
@@ -1510,7 +1510,7 @@
         <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
         <v>1.32</v>
@@ -1534,7 +1534,7 @@
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
@@ -1576,7 +1576,7 @@
         <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
         <v>15</v>
@@ -1651,13 +1651,13 @@
         <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V9" t="n">
         <v>1.87</v>
@@ -1687,7 +1687,7 @@
         <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>27</v>
@@ -1708,7 +1708,7 @@
         <v>38</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
         <v>80</v>
@@ -1750,7 +1750,7 @@
         <v>2.56</v>
       </c>
       <c r="G10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
         <v>3.35</v>
@@ -1759,49 +1759,49 @@
         <v>3.45</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
         <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R10" t="n">
         <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T10" t="n">
         <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V10" t="n">
         <v>1.41</v>
       </c>
       <c r="W10" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X10" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y10" t="n">
         <v>10.5</v>
@@ -1813,7 +1813,7 @@
         <v>65</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
         <v>7</v>
@@ -1825,13 +1825,13 @@
         <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>65</v>
@@ -1849,10 +1849,10 @@
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G11" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
         <v>3.75</v>
@@ -1900,22 +1900,22 @@
         <v>3.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M11" t="n">
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O11" t="n">
         <v>1.48</v>
       </c>
       <c r="P11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
@@ -1924,16 +1924,16 @@
         <v>4.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V11" t="n">
         <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X11" t="n">
         <v>9.4</v>
@@ -1957,7 +1957,7 @@
         <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -2023,16 +2023,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I12" t="n">
         <v>1.41</v>
       </c>
       <c r="J12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.32</v>
@@ -2053,19 +2053,19 @@
         <v>1.69</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
         <v>2.74</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
         <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="W12" t="n">
         <v>1.11</v>
@@ -2074,7 +2074,7 @@
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z12" t="n">
         <v>8.6</v>
@@ -2107,7 +2107,7 @@
         <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AK12" t="n">
         <v>140</v>
@@ -2158,19 +2158,19 @@
         <v>1.74</v>
       </c>
       <c r="H13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I13" t="n">
         <v>5.6</v>
       </c>
-      <c r="I13" t="n">
-        <v>5.8</v>
-      </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2200,7 +2200,7 @@
         <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
         <v>2.34</v>
@@ -2224,7 +2224,7 @@
         <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
         <v>70</v>
@@ -2257,7 +2257,7 @@
         <v>9.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.73</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.74</v>
       </c>
       <c r="J14" t="n">
         <v>4.2</v>
@@ -2305,16 +2305,16 @@
         <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
         <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
         <v>2.18</v>
@@ -2332,16 +2332,16 @@
         <v>1.8</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W14" t="n">
         <v>1.22</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9.6</v>
@@ -2386,7 +2386,7 @@
         <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="n">
         <v>65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.4</v>
+        <v>2.94</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>2.42</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.47</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>3.95</v>
+        <v>5.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>3.65</v>
+        <v>1.85</v>
       </c>
       <c r="X2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y2" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>29</v>
-      </c>
       <c r="Z2" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.6</v>
+        <v>13.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>560</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.74</v>
+        <v>2.06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.76</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.36</v>
       </c>
-      <c r="S3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.51</v>
-      </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="n">
         <v>44</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>32</v>
-      </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>09:40:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.41</v>
+        <v>4.2</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
-        <v>8.4</v>
+        <v>1.81</v>
       </c>
       <c r="I4" t="n">
-        <v>8.6</v>
+        <v>1.97</v>
       </c>
       <c r="J4" t="n">
-        <v>5.7</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>3.05</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.46</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>2.14</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>2.42</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
-        <v>3.35</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>40</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AO4" t="n">
         <v>20</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>WSG Wattens</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>610</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>870</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.17</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.98</v>
+        <v>1.16</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>2.42</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>990</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="AE5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>2.12</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>1.26</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>1.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1.18</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.6</v>
+        <v>990</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>990</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.3</v>
+        <v>1.66</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>610</v>
       </c>
       <c r="H7" t="n">
-        <v>2.42</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>2.44</v>
+        <v>870</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>1.19</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>990</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,45 +1463,45 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="G8" t="n">
-        <v>1.93</v>
+        <v>1.39</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>11.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
@@ -1510,85 +1510,85 @@
         <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>2.62</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>670</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN8" t="n">
         <v>8</v>
       </c>
-      <c r="AD8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>15</v>
-      </c>
       <c r="AO8" t="n">
-        <v>75</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.7</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="V9" t="n">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
       <c r="W9" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK9" t="n">
         <v>32</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>38</v>
       </c>
       <c r="AL9" t="n">
         <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.56</v>
+        <v>3.55</v>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>2.16</v>
       </c>
       <c r="I10" t="n">
-        <v>3.45</v>
+        <v>2.18</v>
       </c>
       <c r="J10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.1</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.7</v>
-      </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="W10" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="X10" t="n">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AE10" t="n">
         <v>21</v>
       </c>
-      <c r="AA10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AF10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG10" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL10" t="n">
         <v>46</v>
       </c>
-      <c r="AF10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>55</v>
-      </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>2.44</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.75</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>2.98</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="S11" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U11" t="n">
         <v>2</v>
       </c>
-      <c r="U11" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9.6</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
-        <v>9.800000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.39</v>
+        <v>2.46</v>
       </c>
       <c r="I12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L12" t="n">
         <v>1.41</v>
       </c>
-      <c r="J12" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.32</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.23</v>
-      </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>1.99</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.99</v>
       </c>
       <c r="R12" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>3.45</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF12" t="n">
         <v>21</v>
       </c>
-      <c r="Y12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AG12" t="n">
         <v>14</v>
       </c>
-      <c r="AF12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN12" t="n">
         <v>34</v>
       </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>340</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>140</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>160</v>
-      </c>
       <c r="AO12" t="n">
-        <v>5.6</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="13">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.73</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="H13" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>5.6</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="W13" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="X13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
         <v>16</v>
       </c>
-      <c r="Y13" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AI13" t="n">
         <v>42</v>
       </c>
-      <c r="AA13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -2273,260 +2273,1070 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.4</v>
+        <v>1.41</v>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
-        <v>1.72</v>
+        <v>8.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.73</v>
+        <v>8.6</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.46</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="V14" t="n">
-        <v>2.36</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>1.22</v>
+        <v>3.35</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.6</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.5</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>17.5</v>
+        <v>230</v>
       </c>
       <c r="AB14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH14" t="n">
         <v>20</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>19</v>
-      </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>130</v>
+        <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>65</v>
+        <v>12.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AM14" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>65</v>
+        <v>4.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.199999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>330</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X20" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Honduras Liga Nacional</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>2026-01-07</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>CD Olimpia</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>CD Marathon</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F21" t="n">
         <v>1.04</v>
       </c>
-      <c r="G15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.04</v>
       </c>
-      <c r="I15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J21" t="n">
         <v>1.03</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K21" t="n">
         <v>950</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L21" t="n">
         <v>1.01</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M21" t="n">
         <v>1.01</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N21" t="n">
         <v>1.25</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O21" t="n">
         <v>1.01</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P21" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.01</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V15" t="n">
+      <c r="W21" t="n">
         <v>1.01</v>
       </c>
-      <c r="W15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO15" t="n">
+      <c r="X21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -697,7 +697,7 @@
         <v>1.56</v>
       </c>
       <c r="P2" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q2" t="n">
         <v>2.68</v>
@@ -802,55 +802,55 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="W3" t="n">
         <v>1.36</v>
@@ -865,13 +865,13 @@
         <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>13.5</v>
@@ -880,31 +880,31 @@
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AG3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH3" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK3" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
         <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
         <v>14.5</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G4" t="n">
         <v>5.9</v>
@@ -976,13 +976,13 @@
         <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
         <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
         <v>2.04</v>
@@ -1075,16 +1075,16 @@
         <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>610</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="I5" t="n">
         <v>870</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="O5" t="n">
         <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="Q5" t="n">
         <v>1.17</v>
@@ -1111,7 +1111,7 @@
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1123,7 +1123,7 @@
         <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="X5" t="n">
         <v>990</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.19</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.18</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1354,7 +1354,7 @@
         <v>870</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1366,7 +1366,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
@@ -1381,7 +1381,7 @@
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1483,16 +1483,16 @@
         <v>1.39</v>
       </c>
       <c r="H8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I8" t="n">
         <v>11</v>
       </c>
-      <c r="I8" t="n">
-        <v>11.5</v>
-      </c>
       <c r="J8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1519,28 +1519,28 @@
         <v>3.95</v>
       </c>
       <c r="T8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U8" t="n">
         <v>1.58</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="X8" t="n">
         <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
         <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="AB8" t="n">
         <v>6.4</v>
@@ -1552,7 +1552,7 @@
         <v>48</v>
       </c>
       <c r="AE8" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AF8" t="n">
         <v>6.6</v>
@@ -1582,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>530</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G9" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.74</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.76</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
@@ -1636,31 +1636,31 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
         <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W9" t="n">
         <v>1.51</v>
@@ -1672,7 +1672,7 @@
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
         <v>42</v>
@@ -1705,16 +1705,16 @@
         <v>46</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
         <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
         <v>26</v>
@@ -1753,10 +1753,10 @@
         <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.8</v>
@@ -1780,7 +1780,7 @@
         <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
         <v>1.44</v>
@@ -1789,13 +1789,13 @@
         <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
         <v>1.38</v>
@@ -1807,7 +1807,7 @@
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA10" t="n">
         <v>26</v>
@@ -1849,10 +1849,10 @@
         <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11">
@@ -1888,10 +1888,10 @@
         <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1909,22 +1909,22 @@
         <v>3.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
@@ -1933,7 +1933,7 @@
         <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -1963,7 +1963,7 @@
         <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -1975,7 +1975,7 @@
         <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
         <v>40</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="I12" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="J12" t="n">
         <v>3.45</v>
@@ -2041,16 +2041,16 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
         <v>1.37</v>
@@ -2062,28 +2062,28 @@
         <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
         <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
         <v>7.4</v>
@@ -2092,37 +2092,37 @@
         <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
         <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
         <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2170,43 +2170,43 @@
         <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.8</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.78</v>
-      </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>15.5</v>
@@ -2230,7 +2230,7 @@
         <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2251,13 +2251,13 @@
         <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H14" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K14" t="n">
         <v>5.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.23</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
         <v>7.2</v>
@@ -2317,19 +2317,19 @@
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q14" t="n">
         <v>1.46</v>
       </c>
       <c r="R14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="n">
         <v>2.44</v>
@@ -2338,10 +2338,10 @@
         <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="X14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
         <v>40</v>
@@ -2350,49 +2350,49 @@
         <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB14" t="n">
         <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
         <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G15" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
         <v>5.3</v>
@@ -2446,13 +2446,13 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
         <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q15" t="n">
         <v>2.2</v>
@@ -2467,19 +2467,19 @@
         <v>2.02</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
         <v>1.22</v>
       </c>
       <c r="W15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
         <v>38</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
         <v>9.6</v>
@@ -2506,7 +2506,7 @@
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
         <v>90</v>
@@ -2521,7 +2521,7 @@
         <v>42</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
         <v>14.5</v>
@@ -2563,10 +2563,10 @@
         <v>2.64</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2581,16 +2581,16 @@
         <v>1.12</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P16" t="n">
         <v>1.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R16" t="n">
         <v>1.24</v>
@@ -2602,13 +2602,13 @@
         <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V16" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W16" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X16" t="n">
         <v>9.199999999999999</v>
@@ -2746,7 +2746,7 @@
         <v>1.7</v>
       </c>
       <c r="X17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
@@ -2854,10 +2854,10 @@
         <v>5.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q18" t="n">
         <v>1.68</v>
@@ -2866,10 +2866,10 @@
         <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
         <v>1.95</v>
@@ -2917,7 +2917,7 @@
         <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AK18" t="n">
         <v>140</v>
@@ -2968,10 +2968,10 @@
         <v>5.5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
@@ -2986,10 +2986,10 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
         <v>2.2</v>
@@ -3001,10 +3001,10 @@
         <v>1.47</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U19" t="n">
         <v>2.2</v>
@@ -3031,7 +3031,7 @@
         <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
         <v>9.6</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I20" t="n">
         <v>5.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.6</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.37</v>
@@ -3121,7 +3121,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
@@ -3145,40 +3145,40 @@
         <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X20" t="n">
         <v>16</v>
       </c>
       <c r="Y20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB20" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="n">
         <v>10.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH20" t="n">
         <v>19.5</v>
@@ -3187,10 +3187,10 @@
         <v>70</v>
       </c>
       <c r="AJ20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK20" t="n">
         <v>17</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>16.5</v>
       </c>
       <c r="AL20" t="n">
         <v>32</v>
@@ -3199,7 +3199,7 @@
         <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>70</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -676,7 +676,7 @@
         <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.94</v>
@@ -685,7 +685,7 @@
         <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -709,13 +709,13 @@
         <v>5.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U2" t="n">
         <v>1.68</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
         <v>1.85</v>
@@ -832,7 +832,7 @@
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.65</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
         <v>1.81</v>
       </c>
       <c r="I4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -967,10 +967,10 @@
         <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
@@ -991,40 +991,40 @@
         <v>1.21</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
         <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI4" t="n">
         <v>48</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>55</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>150</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>2.12</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
-        <v>870</v>
+        <v>2.14</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="W5" t="n">
-        <v>1.41</v>
+        <v>1.03</v>
       </c>
       <c r="X5" t="n">
         <v>990</v>
@@ -1345,7 +1345,7 @@
         <v>1.66</v>
       </c>
       <c r="G7" t="n">
-        <v>610</v>
+        <v>17</v>
       </c>
       <c r="H7" t="n">
         <v>1.04</v>
@@ -1393,7 +1393,7 @@
         <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="X7" t="n">
         <v>990</v>
@@ -1489,10 +1489,10 @@
         <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1531,10 +1531,10 @@
         <v>3.55</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
         <v>110</v>
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="n">
         <v>260</v>
@@ -1615,7 +1615,7 @@
         <v>2.94</v>
       </c>
       <c r="G9" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H9" t="n">
         <v>2.72</v>
@@ -1663,7 +1663,7 @@
         <v>1.57</v>
       </c>
       <c r="W9" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1711,13 +1711,13 @@
         <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -1753,10 +1753,10 @@
         <v>3.6</v>
       </c>
       <c r="H10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.18</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.8</v>
@@ -1780,7 +1780,7 @@
         <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
         <v>1.44</v>
@@ -1795,13 +1795,13 @@
         <v>2.36</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W10" t="n">
         <v>1.38</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1849,7 +1849,7 @@
         <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
         <v>14.5</v>
@@ -1885,13 +1885,13 @@
         <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I11" t="n">
         <v>4.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1912,7 +1912,7 @@
         <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q11" t="n">
         <v>2.1</v>
@@ -1933,7 +1933,7 @@
         <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -1948,7 +1948,7 @@
         <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -2023,10 +2023,10 @@
         <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
         <v>3.45</v>
@@ -2047,25 +2047,25 @@
         <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S12" t="n">
         <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
         <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W12" t="n">
         <v>1.4</v>
@@ -2092,13 +2092,13 @@
         <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
         <v>24</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>17</v>
@@ -2170,7 +2170,7 @@
         <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2179,25 +2179,25 @@
         <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
         <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U13" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V13" t="n">
         <v>1.4</v>
@@ -2209,7 +2209,7 @@
         <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
         <v>25</v>
@@ -2218,10 +2218,10 @@
         <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
         <v>14</v>
@@ -2239,13 +2239,13 @@
         <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
         <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
         <v>32</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K14" t="n">
         <v>5.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.23</v>
@@ -2323,22 +2323,22 @@
         <v>1.46</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S14" t="n">
         <v>2.14</v>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U14" t="n">
         <v>2.44</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X14" t="n">
         <v>34</v>
@@ -2347,7 +2347,7 @@
         <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="n">
         <v>220</v>
@@ -2359,16 +2359,16 @@
         <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>19.5</v>
@@ -2377,7 +2377,7 @@
         <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
         <v>13</v>
@@ -2470,7 +2470,7 @@
         <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
         <v>2.16</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="H16" t="n">
         <v>3.35</v>
@@ -2587,10 +2587,10 @@
         <v>1.49</v>
       </c>
       <c r="P16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R16" t="n">
         <v>1.24</v>
@@ -2602,13 +2602,13 @@
         <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
         <v>1.41</v>
       </c>
       <c r="W16" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X16" t="n">
         <v>9.199999999999999</v>
@@ -2626,7 +2626,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
         <v>14.5</v>
@@ -2635,7 +2635,7 @@
         <v>46</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
@@ -2647,10 +2647,10 @@
         <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
         <v>55</v>
@@ -2659,7 +2659,7 @@
         <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
         <v>55</v>
@@ -2716,7 +2716,7 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
         <v>1.48</v>
@@ -2746,7 +2746,7 @@
         <v>1.7</v>
       </c>
       <c r="X17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
@@ -2851,19 +2851,19 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
         <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R18" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S18" t="n">
         <v>2.74</v>
@@ -2887,7 +2887,7 @@
         <v>9.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA18" t="n">
         <v>11.5</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G19" t="n">
         <v>5.4</v>
       </c>
-      <c r="G19" t="n">
-        <v>5.5</v>
-      </c>
       <c r="H19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I19" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K19" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.34</v>
@@ -2992,7 +2992,7 @@
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
         <v>1.81</v>
@@ -3001,7 +3001,7 @@
         <v>1.47</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>1.81</v>
@@ -3010,7 +3010,7 @@
         <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="W19" t="n">
         <v>1.22</v>
@@ -3025,10 +3025,10 @@
         <v>10.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="n">
         <v>9</v>
@@ -3043,13 +3043,13 @@
         <v>42</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH19" t="n">
         <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
         <v>130</v>
@@ -3058,7 +3058,7 @@
         <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
         <v>95</v>
@@ -3067,7 +3067,7 @@
         <v>65</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G20" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H20" t="n">
         <v>5.4</v>
@@ -3127,19 +3127,19 @@
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
         <v>2.12</v>
@@ -3166,7 +3166,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
         <v>19.5</v>
@@ -3181,13 +3181,13 @@
         <v>9.6</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
         <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>17</v>
@@ -3202,7 +3202,7 @@
         <v>10</v>
       </c>
       <c r="AO20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -3244,7 +3244,7 @@
         <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
         <v>950</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -667,88 +667,88 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.54</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="K2" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
         <v>2.42</v>
       </c>
       <c r="O2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
         <v>1.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="U2" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="X2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -808,7 +808,7 @@
         <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I3" t="n">
         <v>2.26</v>
@@ -826,7 +826,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -835,10 +835,10 @@
         <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S3" t="n">
         <v>2.64</v>
@@ -847,7 +847,7 @@
         <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V3" t="n">
         <v>1.79</v>
@@ -856,52 +856,52 @@
         <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
         <v>15.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB3" t="n">
         <v>19</v>
       </c>
-      <c r="AA3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
         <v>30</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
         <v>65</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
         <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
         <v>29</v>
@@ -940,13 +940,13 @@
         <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I4" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -958,7 +958,7 @@
         <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
@@ -970,7 +970,7 @@
         <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
@@ -985,7 +985,7 @@
         <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
         <v>1.21</v>
@@ -994,25 +994,25 @@
         <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Z4" t="n">
         <v>12.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="n">
         <v>18</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
         <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
         <v>42</v>
@@ -1030,7 +1030,7 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>110</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
-        <v>36</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
         <v>2.14</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>32</v>
@@ -1123,7 +1123,7 @@
         <v>1.88</v>
       </c>
       <c r="W5" t="n">
-        <v>1.03</v>
+        <v>1.41</v>
       </c>
       <c r="X5" t="n">
         <v>990</v>
@@ -1501,28 +1501,28 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="U8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V8" t="n">
         <v>1.1</v>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
         <v>110</v>
@@ -1555,13 +1555,13 @@
         <v>290</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI8" t="n">
         <v>260</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="G9" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1636,13 +1636,13 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
         <v>2.06</v>
@@ -1660,10 +1660,10 @@
         <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1672,13 +1672,13 @@
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>7.2</v>
@@ -1690,7 +1690,7 @@
         <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -1699,10 +1699,10 @@
         <v>17.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ9" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AK9" t="n">
         <v>34</v>
@@ -1717,7 +1717,7 @@
         <v>32</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H10" t="n">
         <v>2.16</v>
@@ -1777,28 +1777,28 @@
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R10" t="n">
         <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
         <v>1.84</v>
       </c>
       <c r="W10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G11" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1909,13 +1909,13 @@
         <v>3.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
         <v>1.33</v>
@@ -1924,40 +1924,40 @@
         <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
         <v>10.5</v>
@@ -1984,10 +1984,10 @@
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
         <v>1.41</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>3.95</v>
@@ -2053,37 +2053,37 @@
         <v>1.97</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
         <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X12" t="n">
         <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
         <v>7.4</v>
@@ -2092,22 +2092,22 @@
         <v>11</v>
       </c>
       <c r="AE12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF12" t="n">
         <v>23</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>24</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
         <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
         <v>36</v>
@@ -2116,13 +2116,13 @@
         <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
         <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2170,7 +2170,7 @@
         <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2188,7 +2188,7 @@
         <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
         <v>3.1</v>
@@ -2203,16 +2203,16 @@
         <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
         <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
         <v>60</v>
@@ -2239,7 +2239,7 @@
         <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
         <v>28</v>
@@ -2248,13 +2248,13 @@
         <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
         <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>32</v>
@@ -2293,10 +2293,10 @@
         <v>1.45</v>
       </c>
       <c r="H14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
         <v>5.5</v>
@@ -2317,22 +2317,22 @@
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q14" t="n">
         <v>1.46</v>
       </c>
       <c r="R14" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S14" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
         <v>1.65</v>
       </c>
       <c r="U14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V14" t="n">
         <v>1.14</v>
@@ -2341,7 +2341,7 @@
         <v>3.2</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="n">
         <v>40</v>
@@ -2350,10 +2350,10 @@
         <v>75</v>
       </c>
       <c r="AA14" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
         <v>13</v>
@@ -2377,7 +2377,7 @@
         <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK14" t="n">
         <v>13</v>
@@ -2389,10 +2389,10 @@
         <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I15" t="n">
         <v>5.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.4</v>
       </c>
       <c r="J15" t="n">
         <v>3.7</v>
@@ -2440,7 +2440,7 @@
         <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
@@ -2452,13 +2452,13 @@
         <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2467,7 +2467,7 @@
         <v>2.02</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
         <v>1.23</v>
@@ -2485,22 +2485,22 @@
         <v>38</v>
       </c>
       <c r="AA15" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
         <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
@@ -2512,7 +2512,7 @@
         <v>90</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G16" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
         <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.52</v>
@@ -2587,34 +2587,34 @@
         <v>1.49</v>
       </c>
       <c r="P16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R16" t="n">
         <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T16" t="n">
         <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V16" t="n">
         <v>1.41</v>
       </c>
       <c r="W16" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="X16" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
@@ -2623,7 +2623,7 @@
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC16" t="n">
         <v>7</v>
@@ -2635,7 +2635,7 @@
         <v>46</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
@@ -2644,22 +2644,22 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
         <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
         <v>55</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G17" t="n">
         <v>2.44</v>
@@ -2704,13 +2704,13 @@
         <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
         <v>3.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
@@ -2734,7 +2734,7 @@
         <v>4.8</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
         <v>1.94</v>
@@ -2743,10 +2743,10 @@
         <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
@@ -2839,10 +2839,10 @@
         <v>1.41</v>
       </c>
       <c r="J18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.29</v>
@@ -2857,25 +2857,25 @@
         <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R18" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="W18" t="n">
         <v>1.11</v>
@@ -2884,25 +2884,25 @@
         <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB18" t="n">
         <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF18" t="n">
         <v>85</v>
@@ -2917,22 +2917,22 @@
         <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="AK18" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AL18" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="19">
@@ -2968,16 +2968,16 @@
         <v>5.4</v>
       </c>
       <c r="H19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.74</v>
       </c>
-      <c r="I19" t="n">
-        <v>1.75</v>
-      </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.34</v>
@@ -3004,13 +3004,13 @@
         <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
         <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W19" t="n">
         <v>1.22</v>
@@ -3064,10 +3064,10 @@
         <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.77</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.78</v>
       </c>
       <c r="H20" t="n">
         <v>5.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -3139,7 +3139,7 @@
         <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
         <v>2.12</v>
@@ -3157,7 +3157,7 @@
         <v>19.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA20" t="n">
         <v>130</v>
@@ -3169,10 +3169,10 @@
         <v>8.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF20" t="n">
         <v>10.5</v>
@@ -3187,7 +3187,7 @@
         <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK20" t="n">
         <v>17</v>
@@ -3202,7 +3202,7 @@
         <v>10</v>
       </c>
       <c r="AO20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K2" t="n">
         <v>3.15</v>
@@ -715,10 +715,10 @@
         <v>1.71</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W2" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X2" t="n">
         <v>9.199999999999999</v>
@@ -805,19 +805,19 @@
         <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
         <v>2.26</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.26</v>
@@ -826,34 +826,34 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
         <v>1.52</v>
       </c>
       <c r="S3" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
         <v>24</v>
@@ -874,7 +874,7 @@
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -889,7 +889,7 @@
         <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="n">
         <v>65</v>
@@ -907,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4">
@@ -940,13 +940,13 @@
         <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
         <v>1.82</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -985,7 +985,7 @@
         <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
         <v>1.21</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="I5" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>32</v>
+        <v>6.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1114,67 +1114,67 @@
         <v>1.28</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="W5" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X5" t="n">
-        <v>990</v>
+        <v>100</v>
       </c>
       <c r="Y5" t="n">
-        <v>990</v>
+        <v>50</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB5" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>740</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,19 +1210,19 @@
         <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1354,7 +1354,7 @@
         <v>870</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1390,7 +1390,7 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W7" t="n">
         <v>1.06</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
         <v>10.5</v>
@@ -1489,10 +1489,10 @@
         <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1501,34 +1501,34 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q8" t="n">
         <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
         <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="U8" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V8" t="n">
         <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
@@ -1540,7 +1540,7 @@
         <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="AB8" t="n">
         <v>6.4</v>
@@ -1552,7 +1552,7 @@
         <v>48</v>
       </c>
       <c r="AE8" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF8" t="n">
         <v>6.8</v>
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="n">
         <v>260</v>
@@ -1570,7 +1570,7 @@
         <v>10.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>60</v>
@@ -1582,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
         <v>3.05</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.1</v>
-      </c>
       <c r="H9" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I9" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -1636,10 +1636,10 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.91</v>
@@ -1648,31 +1648,31 @@
         <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
         <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA9" t="n">
         <v>38</v>
@@ -1684,10 +1684,10 @@
         <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF9" t="n">
         <v>19.5</v>
@@ -1696,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>42</v>
@@ -1705,10 +1705,10 @@
         <v>50</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
         <v>95</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G10" t="n">
         <v>3.65</v>
@@ -1780,13 +1780,13 @@
         <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R10" t="n">
         <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
         <v>1.72</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I11" t="n">
         <v>4.9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1912,13 +1912,13 @@
         <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q11" t="n">
         <v>2.12</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S11" t="n">
         <v>3.85</v>
@@ -1933,13 +1933,13 @@
         <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
@@ -1957,7 +1957,7 @@
         <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
         <v>10.5</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G12" t="n">
         <v>3.35</v>
       </c>
       <c r="H12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.42</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.44</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2038,7 +2038,7 @@
         <v>1.41</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
         <v>3.95</v>
@@ -2050,31 +2050,31 @@
         <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S12" t="n">
         <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
         <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
         <v>15.5</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
         <v>2.26</v>
@@ -2164,10 +2164,10 @@
         <v>3.5</v>
       </c>
       <c r="J13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.37</v>
@@ -2176,22 +2176,22 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
         <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
         <v>1.7</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.44</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.45</v>
-      </c>
       <c r="H14" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J14" t="n">
         <v>5.5</v>
@@ -2317,10 +2317,10 @@
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
         <v>1.87</v>
@@ -2329,25 +2329,25 @@
         <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
         <v>2.46</v>
       </c>
       <c r="V14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
         <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="n">
         <v>210</v>
@@ -2377,13 +2377,13 @@
         <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
         <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
         <v>75</v>
@@ -2392,7 +2392,7 @@
         <v>4.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I15" t="n">
         <v>5.3</v>
@@ -2449,7 +2449,7 @@
         <v>3.45</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P15" t="n">
         <v>1.83</v>
@@ -2458,16 +2458,16 @@
         <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
         <v>1.23</v>
@@ -2494,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
         <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
@@ -2515,19 +2515,19 @@
         <v>19</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
         <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -2560,19 +2560,19 @@
         <v>2.58</v>
       </c>
       <c r="G16" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I16" t="n">
         <v>3.4</v>
       </c>
       <c r="J16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.52</v>
@@ -2581,10 +2581,10 @@
         <v>1.12</v>
       </c>
       <c r="N16" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
         <v>1.64</v>
@@ -2596,25 +2596,25 @@
         <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T16" t="n">
         <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
         <v>1.41</v>
       </c>
       <c r="W16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X16" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
@@ -2647,7 +2647,7 @@
         <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK16" t="n">
         <v>34</v>
@@ -2695,7 +2695,7 @@
         <v>2.4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H17" t="n">
         <v>3.7</v>
@@ -2704,7 +2704,7 @@
         <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
         <v>3.2</v>
@@ -2722,13 +2722,13 @@
         <v>1.48</v>
       </c>
       <c r="P17" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
         <v>4.8</v>
@@ -2743,7 +2743,7 @@
         <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X17" t="n">
         <v>9.6</v>
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="n">
         <v>8.199999999999999</v>
@@ -2791,7 +2791,7 @@
         <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
         <v>29</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
@@ -2845,22 +2845,22 @@
         <v>5.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R18" t="n">
         <v>1.53</v>
@@ -2869,13 +2869,13 @@
         <v>2.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W18" t="n">
         <v>1.11</v>
@@ -2887,7 +2887,7 @@
         <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA18" t="n">
         <v>12</v>
@@ -2905,7 +2905,7 @@
         <v>14.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG18" t="n">
         <v>34</v>
@@ -2968,16 +2968,16 @@
         <v>5.4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I19" t="n">
         <v>1.74</v>
       </c>
       <c r="J19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K19" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.34</v>
@@ -2992,13 +2992,13 @@
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S19" t="n">
         <v>3</v>
@@ -3025,7 +3025,7 @@
         <v>10.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
         <v>20</v>
@@ -3034,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE19" t="n">
         <v>16.5</v>
@@ -3043,7 +3043,7 @@
         <v>42</v>
       </c>
       <c r="AG19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
         <v>19</v>
@@ -3064,10 +3064,10 @@
         <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G20" t="n">
         <v>1.77</v>
@@ -3106,7 +3106,7 @@
         <v>5.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -3139,10 +3139,10 @@
         <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V20" t="n">
         <v>1.22</v>
@@ -3157,7 +3157,7 @@
         <v>19.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="n">
         <v>130</v>
@@ -3166,13 +3166,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
         <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="n">
         <v>10.5</v>
@@ -3187,7 +3187,7 @@
         <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>17</v>
@@ -3196,10 +3196,10 @@
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO20" t="n">
         <v>70</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -673,13 +673,13 @@
         <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K2" t="n">
         <v>3.15</v>
@@ -691,7 +691,7 @@
         <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -712,7 +712,7 @@
         <v>2.14</v>
       </c>
       <c r="U2" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
         <v>1.35</v>
@@ -748,7 +748,7 @@
         <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
         <v>3.65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="I3" t="n">
         <v>2.26</v>
@@ -826,7 +826,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -838,10 +838,10 @@
         <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T3" t="n">
         <v>1.62</v>
@@ -856,58 +856,58 @@
         <v>1.37</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH3" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18</v>
-      </c>
       <c r="AI3" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I4" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -961,13 +961,13 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
         <v>2.16</v>
@@ -976,7 +976,7 @@
         <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
         <v>1.98</v>
@@ -991,22 +991,22 @@
         <v>1.21</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>12.5</v>
@@ -1015,22 +1015,22 @@
         <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL4" t="n">
         <v>110</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO4" t="n">
         <v>20</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.02</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1120,61 +1120,61 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X5" t="n">
         <v>100</v>
       </c>
       <c r="Y5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="n">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="AB5" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AC5" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG5" t="n">
         <v>23</v>
       </c>
-      <c r="AD5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>32</v>
-      </c>
       <c r="AH5" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="AJ5" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="AM5" t="n">
-        <v>740</v>
+        <v>880</v>
       </c>
       <c r="AN5" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>34</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>2.14</v>
@@ -1219,7 +1219,7 @@
         <v>870</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
@@ -1228,25 +1228,25 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1258,7 +1258,7 @@
         <v>1.03</v>
       </c>
       <c r="W6" t="n">
-        <v>1.03</v>
+        <v>1.46</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
         <v>17</v>
@@ -1354,7 +1354,7 @@
         <v>870</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1363,7 +1363,7 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
         <v>1.1</v>
@@ -1384,7 +1384,7 @@
         <v>1.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
         <v>1.04</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.39</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.4</v>
-      </c>
       <c r="H8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1501,88 +1501,88 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
         <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
         <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AE8" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF8" t="n">
         <v>6.8</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>40</v>
       </c>
       <c r="AI8" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK8" t="n">
         <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>330</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9">
@@ -1648,13 +1648,13 @@
         <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
         <v>2.18</v>
@@ -1678,7 +1678,7 @@
         <v>38</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
         <v>7.2</v>
@@ -1708,7 +1708,7 @@
         <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
         <v>95</v>
@@ -1750,7 +1750,7 @@
         <v>3.55</v>
       </c>
       <c r="G10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
         <v>2.16</v>
@@ -1759,10 +1759,10 @@
         <v>2.18</v>
       </c>
       <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.85</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
@@ -1780,7 +1780,7 @@
         <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R10" t="n">
         <v>1.44</v>
@@ -1789,7 +1789,7 @@
         <v>3.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
         <v>2.32</v>
@@ -1798,7 +1798,7 @@
         <v>1.84</v>
       </c>
       <c r="W10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
@@ -1807,13 +1807,13 @@
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.199999999999999</v>
@@ -1825,7 +1825,7 @@
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
         <v>14.5</v>
@@ -1837,13 +1837,13 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK10" t="n">
         <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
         <v>80</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I11" t="n">
         <v>4.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1906,13 +1906,13 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
         <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q11" t="n">
         <v>2.12</v>
@@ -1924,13 +1924,13 @@
         <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
         <v>2.1</v>
@@ -1945,7 +1945,7 @@
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
         <v>8</v>
@@ -1954,7 +1954,7 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE11" t="n">
         <v>65</v>
@@ -1963,13 +1963,13 @@
         <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>21</v>
@@ -1984,7 +1984,7 @@
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO11" t="n">
         <v>80</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I12" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2047,10 +2047,10 @@
         <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R12" t="n">
         <v>1.38</v>
@@ -2059,16 +2059,16 @@
         <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
         <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X12" t="n">
         <v>14</v>
@@ -2077,7 +2077,7 @@
         <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>32</v>
@@ -2095,10 +2095,10 @@
         <v>24</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
         <v>16.5</v>
@@ -2107,22 +2107,22 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
         <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -2179,19 +2179,19 @@
         <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
         <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
         <v>1.7</v>
@@ -2206,7 +2206,7 @@
         <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>15</v>
@@ -2227,7 +2227,7 @@
         <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
         <v>14.5</v>
@@ -2245,19 +2245,19 @@
         <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
         <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -2293,46 +2293,46 @@
         <v>1.44</v>
       </c>
       <c r="H14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K14" t="n">
         <v>5.5</v>
       </c>
-      <c r="K14" t="n">
-        <v>5.6</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
         <v>7.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P14" t="n">
         <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R14" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
         <v>1.13</v>
@@ -2341,25 +2341,25 @@
         <v>3.25</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z14" t="n">
         <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
         <v>85</v>
@@ -2371,7 +2371,7 @@
         <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>70</v>
@@ -2383,16 +2383,16 @@
         <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2434,37 +2434,37 @@
         <v>5.3</v>
       </c>
       <c r="J15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.75</v>
       </c>
       <c r="L15" t="n">
         <v>1.47</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U15" t="n">
         <v>1.96</v>
@@ -2473,13 +2473,13 @@
         <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
         <v>38</v>
@@ -2494,22 +2494,22 @@
         <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="n">
         <v>19</v>
@@ -2521,13 +2521,13 @@
         <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
         <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -2575,19 +2575,19 @@
         <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M16" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q16" t="n">
         <v>2.48</v>
@@ -2599,10 +2599,10 @@
         <v>4.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V16" t="n">
         <v>1.41</v>
@@ -2611,7 +2611,7 @@
         <v>1.62</v>
       </c>
       <c r="X16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y16" t="n">
         <v>10.5</v>
@@ -2644,7 +2644,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
         <v>36</v>
@@ -2653,7 +2653,7 @@
         <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
         <v>150</v>
@@ -2698,13 +2698,13 @@
         <v>2.42</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
         <v>3.2</v>
@@ -2716,28 +2716,28 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
         <v>1.67</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
         <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
         <v>1.36</v>
@@ -2746,7 +2746,7 @@
         <v>1.7</v>
       </c>
       <c r="X17" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
@@ -2758,7 +2758,7 @@
         <v>75</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC17" t="n">
         <v>7</v>
@@ -2770,7 +2770,7 @@
         <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
         <v>11.5</v>
@@ -2785,7 +2785,7 @@
         <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
         <v>55</v>
@@ -2794,7 +2794,7 @@
         <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO17" t="n">
         <v>65</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="H18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.41</v>
       </c>
       <c r="J18" t="n">
         <v>5.3</v>
@@ -2845,55 +2845,55 @@
         <v>5.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S18" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V18" t="n">
         <v>3.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
@@ -2902,37 +2902,37 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>90</v>
       </c>
       <c r="AG18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ18" t="n">
         <v>380</v>
       </c>
       <c r="AK18" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>5.3</v>
       </c>
       <c r="G19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H19" t="n">
         <v>1.73</v>
@@ -2974,19 +2974,19 @@
         <v>1.74</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
@@ -2995,7 +2995,7 @@
         <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
         <v>1.46</v>
@@ -3025,7 +3025,7 @@
         <v>10.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB19" t="n">
         <v>20</v>
@@ -3058,16 +3058,16 @@
         <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
         <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.76</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.77</v>
-      </c>
       <c r="H20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -3145,10 +3145,10 @@
         <v>2.14</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X20" t="n">
         <v>16</v>
@@ -3163,7 +3163,7 @@
         <v>130</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
         <v>8.800000000000001</v>
@@ -3172,22 +3172,22 @@
         <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
         <v>9.6</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI20" t="n">
         <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK20" t="n">
         <v>17</v>
@@ -3199,7 +3199,7 @@
         <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>70</v>
@@ -3271,7 +3271,7 @@
         <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="H2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J2" t="n">
         <v>2.86</v>
@@ -685,22 +685,22 @@
         <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
@@ -709,49 +709,49 @@
         <v>5.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="V2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>44</v>
       </c>
       <c r="AK2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I3" t="n">
         <v>2.26</v>
@@ -820,28 +820,28 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
         <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R3" t="n">
         <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T3" t="n">
         <v>1.62</v>
@@ -859,55 +859,55 @@
         <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
         <v>19.5</v>
       </c>
       <c r="AA3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF3" t="n">
         <v>32</v>
       </c>
-      <c r="AB3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>34</v>
-      </c>
       <c r="AG3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>18</v>
       </c>
-      <c r="AH3" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,34 +937,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
         <v>1.71</v>
@@ -976,7 +976,7 @@
         <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
         <v>1.98</v>
@@ -994,43 +994,43 @@
         <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
         <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
         <v>110</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.68</v>
       </c>
       <c r="J5" t="n">
-        <v>1.46</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
-        <v>1.28</v>
+        <v>2.26</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="W5" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AB5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>55</v>
       </c>
-      <c r="AC5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>120</v>
-      </c>
       <c r="AK5" t="n">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>880</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>250</v>
+        <v>19.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>2.68</v>
       </c>
       <c r="H6" t="n">
-        <v>2.14</v>
+        <v>1.09</v>
       </c>
       <c r="I6" t="n">
-        <v>870</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>5.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>1.26</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
-        <v>1.19</v>
+        <v>2.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>1.03</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
       </c>
       <c r="Y6" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>2.18</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>870</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
         <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>2.96</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.2</v>
+        <v>2.02</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="W7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X7" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG7" t="n">
-        <v>990</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1489,10 +1489,10 @@
         <v>11.5</v>
       </c>
       <c r="J8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1516,13 +1516,13 @@
         <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V8" t="n">
         <v>1.09</v>
@@ -1531,10 +1531,10 @@
         <v>3.55</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
         <v>110</v>
@@ -1546,16 +1546,16 @@
         <v>6.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE8" t="n">
         <v>270</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
@@ -1570,7 +1570,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL8" t="n">
         <v>55</v>
@@ -1615,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
         <v>2.64</v>
@@ -1657,7 +1657,7 @@
         <v>1.79</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
         <v>1.6</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H10" t="n">
         <v>2.16</v>
@@ -1759,10 +1759,10 @@
         <v>2.18</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
@@ -1798,7 +1798,7 @@
         <v>1.84</v>
       </c>
       <c r="W10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
@@ -1825,7 +1825,7 @@
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
         <v>14.5</v>
@@ -1843,7 +1843,7 @@
         <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
         <v>80</v>
@@ -1891,7 +1891,7 @@
         <v>4.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1948,7 +1948,7 @@
         <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -1969,7 +1969,7 @@
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
         <v>21</v>
@@ -1981,7 +1981,7 @@
         <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
         <v>14.5</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G12" t="n">
         <v>3.35</v>
       </c>
-      <c r="G12" t="n">
-        <v>3.4</v>
-      </c>
       <c r="H12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2047,7 +2047,7 @@
         <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
         <v>1.97</v>
@@ -2065,10 +2065,10 @@
         <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X12" t="n">
         <v>14</v>
@@ -2083,7 +2083,7 @@
         <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>7.4</v>
@@ -2095,10 +2095,10 @@
         <v>24</v>
       </c>
       <c r="AF12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>16.5</v>
@@ -2122,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="13">
@@ -2206,10 +2206,10 @@
         <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
         <v>24</v>
@@ -2224,7 +2224,7 @@
         <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
         <v>34</v>
@@ -2257,7 +2257,7 @@
         <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2314,25 +2314,25 @@
         <v>7.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
         <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U14" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V14" t="n">
         <v>1.13</v>
@@ -2371,13 +2371,13 @@
         <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
         <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK14" t="n">
         <v>13</v>
@@ -2392,7 +2392,7 @@
         <v>4.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2482,7 +2482,7 @@
         <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA15" t="n">
         <v>130</v>
@@ -2494,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
         <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
@@ -2521,7 +2521,7 @@
         <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
         <v>14</v>
@@ -2575,7 +2575,7 @@
         <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
@@ -2611,7 +2611,7 @@
         <v>1.62</v>
       </c>
       <c r="X16" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y16" t="n">
         <v>10.5</v>
@@ -2707,7 +2707,7 @@
         <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L17" t="n">
         <v>1.52</v>
@@ -2722,10 +2722,10 @@
         <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
         <v>1.25</v>
@@ -2776,7 +2776,7 @@
         <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>70</v>
@@ -2833,16 +2833,16 @@
         <v>10.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="I18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2851,7 +2851,7 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -2860,7 +2860,7 @@
         <v>2.26</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R18" t="n">
         <v>1.48</v>
@@ -2869,16 +2869,16 @@
         <v>2.96</v>
       </c>
       <c r="T18" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U18" t="n">
         <v>1.88</v>
       </c>
       <c r="V18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X18" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="n">
         <v>11.5</v>
@@ -2917,13 +2917,13 @@
         <v>36</v>
       </c>
       <c r="AJ18" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AK18" t="n">
         <v>160</v>
       </c>
       <c r="AL18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM18" t="n">
         <v>160</v>
@@ -2965,7 +2965,7 @@
         <v>5.3</v>
       </c>
       <c r="G19" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H19" t="n">
         <v>1.73</v>
@@ -2986,7 +2986,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
@@ -2995,13 +2995,13 @@
         <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R19" t="n">
         <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
         <v>1.8</v>
@@ -3019,7 +3019,7 @@
         <v>17.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z19" t="n">
         <v>10.5</v>
@@ -3046,7 +3046,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3064,10 +3064,10 @@
         <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -3100,7 +3100,7 @@
         <v>1.74</v>
       </c>
       <c r="G20" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
         <v>5.5</v>
@@ -3121,7 +3121,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
@@ -3139,7 +3139,7 @@
         <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
         <v>2.14</v>
@@ -3148,10 +3148,10 @@
         <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="n">
         <v>19.5</v>
@@ -3163,7 +3163,7 @@
         <v>130</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC20" t="n">
         <v>8.800000000000001</v>
@@ -3172,7 +3172,7 @@
         <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="n">
         <v>10</v>
@@ -3187,7 +3187,7 @@
         <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>17</v>
@@ -3199,7 +3199,7 @@
         <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO20" t="n">
         <v>70</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G2" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J2" t="n">
         <v>2.86</v>
@@ -691,43 +691,43 @@
         <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P2" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="T2" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="V2" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W2" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>16.5</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
         <v>25</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
         <v>3.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
@@ -835,31 +835,31 @@
         <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
         <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
         <v>1.62</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W3" t="n">
         <v>1.37</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>19.5</v>
@@ -895,16 +895,16 @@
         <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
         <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
         <v>12.5</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -964,76 +964,76 @@
         <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK4" t="n">
         <v>1000</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>95</v>
-      </c>
       <c r="AL4" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="G5" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H5" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="I5" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="T5" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U5" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
         <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="n">
         <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>22</v>
       </c>
       <c r="AC5" t="n">
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI5" t="n">
         <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09</v>
+        <v>2.96</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.3</v>
@@ -1231,88 +1231,88 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
-        <v>990</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK6" t="n">
         <v>24</v>
       </c>
-      <c r="Z6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>32</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>46</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="G7" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>2.96</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.07</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1489,19 +1489,19 @@
         <v>11.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O8" t="n">
         <v>1.35</v>
@@ -1516,19 +1516,19 @@
         <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
         <v>2.54</v>
       </c>
       <c r="U8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
         <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X8" t="n">
         <v>15.5</v>
@@ -1561,7 +1561,7 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="n">
         <v>240</v>
@@ -1579,7 +1579,7 @@
         <v>330</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO8" t="n">
         <v>460</v>
@@ -1618,10 +1618,10 @@
         <v>3.1</v>
       </c>
       <c r="H9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.64</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.66</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -1630,7 +1630,7 @@
         <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1654,10 +1654,10 @@
         <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
         <v>1.6</v>
@@ -1696,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI9" t="n">
         <v>42</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.16</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.18</v>
       </c>
       <c r="J10" t="n">
         <v>3.8</v>
@@ -1765,37 +1765,37 @@
         <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
         <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W10" t="n">
         <v>1.37</v>
@@ -1807,10 +1807,10 @@
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AB10" t="n">
         <v>15.5</v>
@@ -1822,7 +1822,7 @@
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
         <v>26</v>
@@ -1831,19 +1831,19 @@
         <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
         <v>80</v>
@@ -1852,7 +1852,7 @@
         <v>34</v>
       </c>
       <c r="AO10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.9</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.91</v>
-      </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
         <v>4.9</v>
@@ -1900,16 +1900,16 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
         <v>1.87</v>
@@ -1918,19 +1918,19 @@
         <v>2.12</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
         <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
         <v>2.1</v>
@@ -1945,7 +1945,7 @@
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
         <v>8.199999999999999</v>
@@ -1972,7 +1972,7 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
         <v>20</v>
@@ -1981,10 +1981,10 @@
         <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
         <v>80</v>
@@ -2020,7 +2020,7 @@
         <v>3.3</v>
       </c>
       <c r="G12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
         <v>2.38</v>
@@ -2035,7 +2035,7 @@
         <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2068,7 +2068,7 @@
         <v>1.71</v>
       </c>
       <c r="W12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X12" t="n">
         <v>14</v>
@@ -2077,7 +2077,7 @@
         <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA12" t="n">
         <v>32</v>
@@ -2104,7 +2104,7 @@
         <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
         <v>60</v>
@@ -2113,7 +2113,7 @@
         <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
         <v>85</v>
@@ -2206,10 +2206,10 @@
         <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
         <v>24</v>
@@ -2287,43 +2287,43 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I14" t="n">
         <v>8.4</v>
       </c>
-      <c r="I14" t="n">
-        <v>8.6</v>
-      </c>
       <c r="J14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K14" t="n">
         <v>5.4</v>
       </c>
-      <c r="K14" t="n">
-        <v>5.5</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q14" t="n">
         <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S14" t="n">
         <v>2.1</v>
@@ -2338,13 +2338,13 @@
         <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X14" t="n">
         <v>36</v>
       </c>
       <c r="Y14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
         <v>80</v>
@@ -2356,10 +2356,10 @@
         <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
         <v>85</v>
@@ -2383,7 +2383,7 @@
         <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
         <v>70</v>
@@ -2392,7 +2392,7 @@
         <v>4.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -2443,28 +2443,28 @@
         <v>1.47</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
         <v>1.96</v>
@@ -2476,7 +2476,7 @@
         <v>2.14</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>15.5</v>
@@ -2488,13 +2488,13 @@
         <v>130</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC15" t="n">
         <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>75</v>
@@ -2518,16 +2518,16 @@
         <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2575,22 +2575,22 @@
         <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="n">
         <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R16" t="n">
         <v>1.24</v>
@@ -2605,16 +2605,16 @@
         <v>1.92</v>
       </c>
       <c r="V16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X16" t="n">
         <v>9.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
@@ -2623,10 +2623,10 @@
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD16" t="n">
         <v>14.5</v>
@@ -2647,10 +2647,10 @@
         <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
         <v>55</v>
@@ -2662,7 +2662,7 @@
         <v>34</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G17" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.8</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
@@ -2710,7 +2710,7 @@
         <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
@@ -2725,7 +2725,7 @@
         <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R17" t="n">
         <v>1.25</v>
@@ -2734,7 +2734,7 @@
         <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U17" t="n">
         <v>1.96</v>
@@ -2743,10 +2743,10 @@
         <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
@@ -2758,7 +2758,7 @@
         <v>75</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC17" t="n">
         <v>7</v>
@@ -2770,7 +2770,7 @@
         <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
         <v>11.5</v>
@@ -2845,7 +2845,7 @@
         <v>5.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2860,19 +2860,19 @@
         <v>2.26</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R18" t="n">
         <v>1.48</v>
       </c>
       <c r="S18" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U18" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
         <v>3.4</v>
@@ -2887,7 +2887,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA18" t="n">
         <v>11.5</v>
@@ -2905,19 +2905,19 @@
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AG18" t="n">
         <v>36</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
         <v>36</v>
       </c>
       <c r="AJ18" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AK18" t="n">
         <v>160</v>
@@ -2929,7 +2929,7 @@
         <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AO18" t="n">
         <v>6.2</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="I19" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
@@ -2986,7 +2986,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
@@ -3004,13 +3004,13 @@
         <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U19" t="n">
         <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
         <v>1.22</v>
@@ -3046,10 +3046,10 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>130</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I20" t="n">
         <v>5.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.6</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -3115,7 +3115,7 @@
         <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3127,16 +3127,16 @@
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R20" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
         <v>1.84</v>
@@ -3145,10 +3145,10 @@
         <v>2.14</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X20" t="n">
         <v>16.5</v>
@@ -3163,7 +3163,7 @@
         <v>130</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC20" t="n">
         <v>8.800000000000001</v>
@@ -3175,7 +3175,7 @@
         <v>65</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG20" t="n">
         <v>9.6</v>
@@ -3184,7 +3184,7 @@
         <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
         <v>17</v>
@@ -3199,7 +3199,7 @@
         <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO20" t="n">
         <v>70</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="G21" t="n">
         <v>1000</v>
@@ -3241,10 +3241,10 @@
         <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="K21" t="n">
         <v>950</v>
@@ -3280,7 +3280,7 @@
         <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W21" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="G2" t="n">
-        <v>2.68</v>
+        <v>2.24</v>
       </c>
       <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.3</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="P2" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U2" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="G3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
@@ -826,88 +826,88 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="U3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
         <v>19.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
         <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
         <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.1</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.3</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB4" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL4" t="n">
         <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>75</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -1072,94 +1072,94 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G5" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H5" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I5" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="S5" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="T5" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="V5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W5" t="n">
         <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
         <v>38</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
         <v>12</v>
       </c>
       <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
         <v>25</v>
       </c>
-      <c r="AF5" t="n">
-        <v>24</v>
-      </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>14.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>46</v>
@@ -1168,16 +1168,16 @@
         <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G6" t="n">
         <v>2.42</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
         <v>3.55</v>
@@ -1225,13 +1225,13 @@
         <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
@@ -1240,16 +1240,16 @@
         <v>2.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
         <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T6" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U6" t="n">
         <v>2.34</v>
@@ -1258,19 +1258,19 @@
         <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
         <v>28</v>
       </c>
       <c r="AA6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>16</v>
@@ -1279,10 +1279,10 @@
         <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="n">
         <v>18.5</v>
@@ -1348,10 +1348,10 @@
         <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
         <v>3.9</v>
@@ -1372,22 +1372,22 @@
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
         <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
         <v>1.28</v>
@@ -1486,43 +1486,43 @@
         <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.3</v>
       </c>
-      <c r="K8" t="n">
-        <v>5.4</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.54</v>
+        <v>2.78</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
         <v>1.09</v>
@@ -1531,58 +1531,58 @@
         <v>3.6</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
         <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="AC8" t="n">
         <v>12</v>
       </c>
       <c r="AD8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>44</v>
       </c>
-      <c r="AE8" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>38</v>
-      </c>
       <c r="AI8" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>460</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H9" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="I9" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -1636,7 +1636,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
@@ -1660,10 +1660,10 @@
         <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1678,7 +1678,7 @@
         <v>38</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>7.2</v>
@@ -1690,13 +1690,13 @@
         <v>28</v>
       </c>
       <c r="AF9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>42</v>
@@ -1708,13 +1708,13 @@
         <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
         <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
         <v>25</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.14</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.16</v>
       </c>
       <c r="J10" t="n">
         <v>3.8</v>
@@ -1777,28 +1777,28 @@
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
         <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
         <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
@@ -1807,25 +1807,25 @@
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB10" t="n">
         <v>15.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
         <v>14.5</v>
@@ -1834,19 +1834,19 @@
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
         <v>34</v>
@@ -1900,34 +1900,34 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V11" t="n">
         <v>1.25</v>
@@ -1936,10 +1936,10 @@
         <v>2.1</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
@@ -1948,28 +1948,28 @@
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
         <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
         <v>20</v>
@@ -1978,16 +1978,16 @@
         <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -2062,7 +2062,7 @@
         <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
         <v>1.71</v>
@@ -2077,7 +2077,7 @@
         <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>32</v>
@@ -2104,7 +2104,7 @@
         <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
         <v>60</v>
@@ -2122,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2158,7 +2158,7 @@
         <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
         <v>3.5</v>
@@ -2176,28 +2176,28 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V13" t="n">
         <v>1.4</v>
@@ -2206,28 +2206,28 @@
         <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA13" t="n">
         <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
         <v>14.5</v>
@@ -2239,7 +2239,7 @@
         <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
         <v>28</v>
@@ -2248,16 +2248,16 @@
         <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
         <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="G14" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="I14" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K14" t="n">
         <v>5.3</v>
       </c>
-      <c r="K14" t="n">
-        <v>5.4</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2314,31 +2314,31 @@
         <v>7.4</v>
       </c>
       <c r="O14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.15</v>
       </c>
-      <c r="P14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.13</v>
-      </c>
       <c r="W14" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="X14" t="n">
         <v>36</v>
@@ -2347,52 +2347,52 @@
         <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
         <v>28</v>
       </c>
       <c r="AE14" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
         <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2440,7 +2440,7 @@
         <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
@@ -2449,22 +2449,22 @@
         <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>1.96</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G16" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
@@ -2575,7 +2575,7 @@
         <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
@@ -2584,25 +2584,25 @@
         <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P16" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T16" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U16" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
         <v>1.42</v>
@@ -2611,10 +2611,10 @@
         <v>1.6</v>
       </c>
       <c r="X16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
@@ -2635,13 +2635,13 @@
         <v>46</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
         <v>65</v>
@@ -2656,10 +2656,10 @@
         <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
         <v>50</v>
@@ -2698,10 +2698,10 @@
         <v>2.44</v>
       </c>
       <c r="H17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.75</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
@@ -2719,13 +2719,13 @@
         <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
         <v>1.25</v>
@@ -2740,7 +2740,7 @@
         <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
         <v>1.69</v>
@@ -2758,7 +2758,7 @@
         <v>75</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC17" t="n">
         <v>7</v>
@@ -2770,7 +2770,7 @@
         <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG17" t="n">
         <v>11.5</v>
@@ -2833,67 +2833,67 @@
         <v>10.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="I18" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q18" t="n">
         <v>1.76</v>
       </c>
       <c r="R18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T18" t="n">
         <v>2.06</v>
       </c>
       <c r="U18" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
@@ -2905,25 +2905,25 @@
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG18" t="n">
         <v>36</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
         <v>36</v>
       </c>
       <c r="AJ18" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AK18" t="n">
         <v>160</v>
       </c>
       <c r="AL18" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM18" t="n">
         <v>160</v>
@@ -2932,7 +2932,7 @@
         <v>190</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="19">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H19" t="n">
         <v>1.71</v>
@@ -2980,43 +2980,43 @@
         <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
         <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
         <v>1.81</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
         <v>2.38</v>
       </c>
       <c r="W19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
         <v>9.4</v>
@@ -3025,7 +3025,7 @@
         <v>10.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
         <v>20</v>
@@ -3043,31 +3043,31 @@
         <v>42</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
         <v>80</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.75</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.76</v>
       </c>
       <c r="H20" t="n">
         <v>5.4</v>
@@ -3121,13 +3121,13 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q20" t="n">
         <v>1.84</v>
@@ -3142,16 +3142,16 @@
         <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
         <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
         <v>19.5</v>
@@ -3190,7 +3190,7 @@
         <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL20" t="n">
         <v>32</v>
@@ -3232,61 +3232,61 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.35</v>
       </c>
-      <c r="G21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K21" t="n">
-        <v>950</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.02</v>
+        <v>2.02</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U21" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V21" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3298,10 +3298,10 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3313,7 +3313,7 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
         <v>3.3</v>
@@ -694,13 +694,13 @@
         <v>2.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P2" t="n">
         <v>1.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="R2" t="n">
         <v>1.22</v>
@@ -715,31 +715,31 @@
         <v>1.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="X2" t="n">
         <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -751,25 +751,25 @@
         <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="I3" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -835,40 +835,40 @@
         <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T3" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.800000000000001</v>
@@ -877,37 +877,37 @@
         <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
         <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
@@ -952,7 +952,7 @@
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
         <v>1.49</v>
@@ -961,13 +961,13 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
         <v>2.22</v>
@@ -979,10 +979,10 @@
         <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V4" t="n">
         <v>1.9</v>
@@ -991,10 +991,10 @@
         <v>1.28</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
         <v>12.5</v>
@@ -1003,34 +1003,34 @@
         <v>25</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AG4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH4" t="n">
         <v>21</v>
       </c>
-      <c r="AH4" t="n">
-        <v>25</v>
-      </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>110</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H5" t="n">
         <v>2.42</v>
@@ -1090,7 +1090,7 @@
         <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1102,22 +1102,22 @@
         <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
         <v>1.64</v>
       </c>
       <c r="S5" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V5" t="n">
         <v>1.64</v>
@@ -1126,7 +1126,7 @@
         <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="n">
         <v>18.5</v>
@@ -1138,10 +1138,10 @@
         <v>38</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>12</v>
@@ -1153,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>14.5</v>
@@ -1165,7 +1165,7 @@
         <v>46</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>32</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="G6" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1240,10 +1240,10 @@
         <v>2.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>2.58</v>
@@ -1252,13 +1252,13 @@
         <v>1.58</v>
       </c>
       <c r="U6" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
         <v>11.5</v>
@@ -1282,10 +1282,10 @@
         <v>15.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
@@ -1297,7 +1297,7 @@
         <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK6" t="n">
         <v>24</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1342,79 +1342,79 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
         <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,31 +1423,31 @@
         <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1504,58 +1504,58 @@
         <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T8" t="n">
         <v>2.78</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
         <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="AB8" t="n">
         <v>5.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE8" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
@@ -1564,10 +1564,10 @@
         <v>44</v>
       </c>
       <c r="AI8" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK8" t="n">
         <v>18.5</v>
@@ -1579,7 +1579,7 @@
         <v>400</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
         <v>750</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -1630,7 +1630,7 @@
         <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1642,67 +1642,67 @@
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
         <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
         <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="n">
         <v>36</v>
@@ -1714,10 +1714,10 @@
         <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1777,22 +1777,22 @@
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
         <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V10" t="n">
         <v>1.87</v>
@@ -1801,7 +1801,7 @@
         <v>1.36</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1813,7 +1813,7 @@
         <v>25</v>
       </c>
       <c r="AB10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC10" t="n">
         <v>8.4</v>
@@ -1837,16 +1837,16 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL10" t="n">
         <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
         <v>34</v>
@@ -1888,46 +1888,46 @@
         <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.75</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
         <v>1.25</v>
@@ -1936,58 +1936,58 @@
         <v>2.1</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG11" t="n">
         <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
         <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO11" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="J12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.5</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2047,28 +2047,28 @@
         <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
         <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="W12" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X12" t="n">
         <v>14</v>
@@ -2077,13 +2077,13 @@
         <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
         <v>7.4</v>
@@ -2092,25 +2092,25 @@
         <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
         <v>44</v>
@@ -2122,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
         <v>3.7</v>
@@ -2170,7 +2170,7 @@
         <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2179,13 +2179,13 @@
         <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
         <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
         <v>1.48</v>
@@ -2194,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
         <v>2.4</v>
@@ -2203,7 +2203,7 @@
         <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X13" t="n">
         <v>17</v>
@@ -2212,7 +2212,7 @@
         <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
         <v>60</v>
@@ -2224,19 +2224,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
         <v>40</v>
@@ -2251,13 +2251,13 @@
         <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
         <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G14" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="H14" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J14" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2314,58 +2314,58 @@
         <v>7.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="S14" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="T14" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W14" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
         <v>36</v>
       </c>
-      <c r="Y14" t="n">
-        <v>40</v>
-      </c>
       <c r="Z14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA14" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF14" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>13</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2374,25 +2374,25 @@
         <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK14" t="n">
         <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
         <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -2440,31 +2440,31 @@
         <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q15" t="n">
         <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
         <v>1.96</v>
@@ -2494,7 +2494,7 @@
         <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
         <v>75</v>
@@ -2527,7 +2527,7 @@
         <v>14.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -2560,22 +2560,22 @@
         <v>2.64</v>
       </c>
       <c r="G16" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.1</v>
       </c>
-      <c r="K16" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
@@ -2584,43 +2584,43 @@
         <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R16" t="n">
         <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T16" t="n">
         <v>1.99</v>
       </c>
       <c r="U16" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V16" t="n">
         <v>1.42</v>
       </c>
       <c r="W16" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB16" t="n">
         <v>8.800000000000001</v>
@@ -2632,7 +2632,7 @@
         <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
         <v>15</v>
@@ -2650,7 +2650,7 @@
         <v>38</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
         <v>55</v>
@@ -2659,7 +2659,7 @@
         <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
         <v>50</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G17" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.7</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
@@ -2710,46 +2710,46 @@
         <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="O17" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V17" t="n">
         <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="X17" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
         <v>24</v>
@@ -2758,43 +2758,43 @@
         <v>75</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD17" t="n">
         <v>15.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN17" t="n">
         <v>32</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>28</v>
       </c>
       <c r="AO17" t="n">
         <v>65</v>
@@ -2845,7 +2845,7 @@
         <v>5.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2854,7 +2854,7 @@
         <v>4.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
         <v>2.28</v>
@@ -2863,7 +2863,7 @@
         <v>1.76</v>
       </c>
       <c r="R18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S18" t="n">
         <v>2.92</v>
@@ -2887,13 +2887,13 @@
         <v>8.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA18" t="n">
         <v>11</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
@@ -2917,7 +2917,7 @@
         <v>36</v>
       </c>
       <c r="AJ18" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AK18" t="n">
         <v>160</v>
@@ -2929,10 +2929,10 @@
         <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="19">
@@ -2962,94 +2962,94 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G19" t="n">
         <v>5.5</v>
       </c>
-      <c r="G19" t="n">
-        <v>5.6</v>
-      </c>
       <c r="H19" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="I19" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P19" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA19" t="n">
         <v>18</v>
       </c>
-      <c r="Y19" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>17</v>
-      </c>
       <c r="AB19" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE19" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
         <v>140</v>
@@ -3058,16 +3058,16 @@
         <v>70</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="20">
@@ -3103,10 +3103,10 @@
         <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -3121,13 +3121,13 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
         <v>1.84</v>
@@ -3145,16 +3145,16 @@
         <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
         <v>2.32</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="n">
         <v>40</v>
@@ -3166,7 +3166,7 @@
         <v>9.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
         <v>20</v>
@@ -3181,10 +3181,10 @@
         <v>9.6</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
         <v>17</v>
@@ -3199,10 +3199,10 @@
         <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3235,7 @@
         <v>2.02</v>
       </c>
       <c r="G21" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="H21" t="n">
         <v>3.25</v>
@@ -3244,10 +3244,10 @@
         <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.43</v>
@@ -3271,7 +3271,7 @@
         <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T21" t="n">
         <v>1.79</v>
@@ -3283,7 +3283,7 @@
         <v>1.28</v>
       </c>
       <c r="W21" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="X21" t="n">
         <v>990</v>
@@ -3304,7 +3304,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -670,16 +670,16 @@
         <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>3.3</v>
@@ -688,49 +688,49 @@
         <v>1.56</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O2" t="n">
         <v>1.49</v>
       </c>
       <c r="P2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
         <v>1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB2" t="n">
         <v>7.8</v>
@@ -742,10 +742,10 @@
         <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
@@ -754,25 +754,25 @@
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ2" t="n">
         <v>29</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -802,76 +802,76 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I3" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="S3" t="n">
         <v>2.68</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB3" t="n">
         <v>17</v>
       </c>
-      <c r="AA3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
         <v>12</v>
@@ -880,34 +880,34 @@
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI3" t="n">
         <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="4">
@@ -943,16 +943,16 @@
         <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J4" t="n">
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
         <v>1.49</v>
@@ -961,31 +961,31 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W4" t="n">
         <v>1.28</v>
@@ -997,13 +997,13 @@
         <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
@@ -1012,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
         <v>36</v>
@@ -1024,7 +1024,7 @@
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
         <v>140</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AO4" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G5" t="n">
         <v>2.96</v>
@@ -1081,19 +1081,19 @@
         <v>2.42</v>
       </c>
       <c r="I5" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
         <v>5.5</v>
@@ -1102,16 +1102,16 @@
         <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="S5" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T5" t="n">
         <v>1.5</v>
@@ -1120,19 +1120,19 @@
         <v>2.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
         <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>38</v>
@@ -1147,37 +1147,37 @@
         <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
         <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>14.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>46</v>
+        <v>990</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
         <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="G6" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1234,40 +1234,40 @@
         <v>4.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
         <v>2.58</v>
       </c>
       <c r="T6" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>15.5</v>
@@ -1285,25 +1285,25 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
         <v>24</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
         <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
         <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
         <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H8" t="n">
         <v>12</v>
@@ -1489,10 +1489,10 @@
         <v>12.5</v>
       </c>
       <c r="J8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1501,13 +1501,13 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q8" t="n">
         <v>2.28</v>
@@ -1516,55 +1516,55 @@
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="U8" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V8" t="n">
         <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
         <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="AB8" t="n">
         <v>5.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE8" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AF8" t="n">
         <v>6.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AJ8" t="n">
         <v>10.5</v>
@@ -1576,13 +1576,13 @@
         <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="AN8" t="n">
         <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>750</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="G9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.35</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.45</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
@@ -1642,43 +1642,43 @@
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
         <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA9" t="n">
         <v>36</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>7.2</v>
@@ -1687,13 +1687,13 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
@@ -1711,13 +1711,13 @@
         <v>48</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1771,16 +1771,16 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
         <v>1.46</v>
@@ -1789,10 +1789,10 @@
         <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
         <v>1.87</v>
@@ -1801,7 +1801,7 @@
         <v>1.36</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1813,7 +1813,7 @@
         <v>25</v>
       </c>
       <c r="AB10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.4</v>
@@ -1834,7 +1834,7 @@
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
         <v>70</v>
@@ -1846,10 +1846,10 @@
         <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
         <v>14</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.89</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>4.9</v>
@@ -1894,13 +1894,13 @@
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
@@ -1909,37 +1909,37 @@
         <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
         <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V11" t="n">
         <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X11" t="n">
         <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
@@ -1954,7 +1954,7 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
         <v>75</v>
@@ -1978,10 +1978,10 @@
         <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
         <v>16</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I12" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="J12" t="n">
         <v>3.45</v>
@@ -2041,34 +2041,34 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
         <v>14</v>
@@ -2077,7 +2077,7 @@
         <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA12" t="n">
         <v>34</v>
@@ -2116,7 +2116,7 @@
         <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
         <v>34</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.45</v>
       </c>
       <c r="J13" t="n">
         <v>3.7</v>
@@ -2182,10 +2182,10 @@
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
         <v>1.48</v>
@@ -2194,19 +2194,19 @@
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U13" t="n">
         <v>2.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W13" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>15.5</v>
@@ -2227,7 +2227,7 @@
         <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
         <v>15</v>
@@ -2242,7 +2242,7 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
         <v>21</v>
@@ -2254,7 +2254,7 @@
         <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.51</v>
       </c>
       <c r="H14" t="n">
         <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.24</v>
@@ -2323,55 +2323,55 @@
         <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T14" t="n">
         <v>1.61</v>
       </c>
       <c r="U14" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V14" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
         <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA14" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
         <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
         <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
         <v>60</v>
@@ -2392,7 +2392,7 @@
         <v>4.7</v>
       </c>
       <c r="AO14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2440,7 +2440,7 @@
         <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
@@ -2449,22 +2449,22 @@
         <v>3.45</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>1.96</v>
@@ -2494,7 +2494,7 @@
         <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>75</v>
@@ -2527,7 +2527,7 @@
         <v>14.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -2566,7 +2566,7 @@
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J16" t="n">
         <v>3.05</v>
@@ -2581,13 +2581,13 @@
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q16" t="n">
         <v>2.46</v>
@@ -2602,7 +2602,7 @@
         <v>1.99</v>
       </c>
       <c r="U16" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
         <v>1.42</v>
@@ -2623,7 +2623,7 @@
         <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC16" t="n">
         <v>6.8</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
@@ -2716,7 +2716,7 @@
         <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -2725,31 +2725,31 @@
         <v>1.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="R17" t="n">
         <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
         <v>24</v>
@@ -2767,10 +2767,10 @@
         <v>15.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
@@ -2788,7 +2788,7 @@
         <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
         <v>150</v>
@@ -2797,7 +2797,7 @@
         <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2830,10 +2830,10 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="I18" t="n">
         <v>1.4</v>
@@ -2845,7 +2845,7 @@
         <v>5.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2863,19 +2863,19 @@
         <v>1.76</v>
       </c>
       <c r="R18" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S18" t="n">
         <v>2.92</v>
       </c>
       <c r="T18" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="n">
         <v>1.88</v>
       </c>
       <c r="V18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="W18" t="n">
         <v>1.1</v>
@@ -2899,13 +2899,13 @@
         <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
         <v>36</v>
@@ -2932,7 +2932,7 @@
         <v>220</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G19" t="n">
         <v>5.5</v>
       </c>
       <c r="H19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.76</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.77</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
@@ -2980,34 +2980,34 @@
         <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="O19" t="n">
         <v>1.32</v>
       </c>
       <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.04</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.1</v>
       </c>
       <c r="V19" t="n">
         <v>2.3</v>
@@ -3016,58 +3016,58 @@
         <v>1.22</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA19" t="n">
         <v>18</v>
       </c>
       <c r="AB19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>40</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ19" t="n">
         <v>140</v>
       </c>
       <c r="AK19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="n">
         <v>75</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AO19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.38</v>
@@ -3121,10 +3121,10 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P20" t="n">
         <v>2.16</v>
@@ -3133,13 +3133,13 @@
         <v>1.84</v>
       </c>
       <c r="R20" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
         <v>2.16</v>
@@ -3148,7 +3148,7 @@
         <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="X20" t="n">
         <v>16.5</v>
@@ -3157,10 +3157,10 @@
         <v>20</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA20" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB20" t="n">
         <v>9.4</v>
@@ -3169,10 +3169,10 @@
         <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF20" t="n">
         <v>10.5</v>
@@ -3187,7 +3187,7 @@
         <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK20" t="n">
         <v>16.5</v>
@@ -3199,7 +3199,7 @@
         <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO20" t="n">
         <v>80</v>
@@ -3232,61 +3232,61 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P21" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.79</v>
       </c>
-      <c r="U21" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.69</v>
-      </c>
       <c r="X21" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3298,13 +3298,13 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.35</v>
+        <v>7.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>7.6</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE2" t="n">
         <v>13.5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
         <v>5.3</v>
       </c>
-      <c r="K2" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>38</v>
-      </c>
       <c r="AI2" t="n">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>11.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.199999999999999</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
-        <v>790</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>13.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>1.39</v>
       </c>
       <c r="I3" t="n">
-        <v>2.64</v>
+        <v>1.41</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.61</v>
+        <v>3.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>4.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.5</v>
+        <v>5.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
         <v>20</v>
       </c>
-      <c r="AG3" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="AN3" t="n">
-        <v>38</v>
+        <v>460</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G4" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="H4" t="n">
         <v>6.4</v>
@@ -949,10 +949,10 @@
         <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>1.24</v>
@@ -961,88 +961,88 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S4" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T4" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U4" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="n">
         <v>36</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB4" t="n">
         <v>14</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.7</v>
@@ -1090,28 +1090,28 @@
         <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>1.67</v>
@@ -1120,25 +1120,25 @@
         <v>2.44</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W5" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="X5" t="n">
         <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="n">
         <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.199999999999999</v>
@@ -1150,19 +1150,19 @@
         <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1171,13 +1171,13 @@
         <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
         <v>4.9</v>
@@ -1219,25 +1219,25 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q6" t="n">
         <v>2.12</v>
@@ -1249,16 +1249,16 @@
         <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
         <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
         <v>12.5</v>
@@ -1273,19 +1273,19 @@
         <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
         <v>18.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1300,10 +1300,10 @@
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.43</v>
@@ -1366,40 +1366,40 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
         <v>15.5</v>
@@ -1411,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1423,10 +1423,10 @@
         <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
         <v>36</v>
@@ -1438,16 +1438,16 @@
         <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1477,31 +1477,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.45</v>
@@ -1510,7 +1510,7 @@
         <v>1.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
@@ -1519,43 +1519,43 @@
         <v>4.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
         <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
@@ -1564,25 +1564,25 @@
         <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="W9" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
         <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
         <v>70</v>
       </c>
       <c r="AK9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL9" t="n">
         <v>42</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN9" t="n">
         <v>44</v>
       </c>
-      <c r="AM9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>42</v>
-      </c>
       <c r="AO9" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.68</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.72</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
@@ -1759,13 +1759,13 @@
         <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1780,37 +1780,37 @@
         <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U10" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V10" t="n">
         <v>1.43</v>
       </c>
       <c r="W10" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
         <v>20</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
         <v>8.800000000000001</v>
@@ -1822,7 +1822,7 @@
         <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF10" t="n">
         <v>15.5</v>
@@ -1849,7 +1849,7 @@
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
         <v>55</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
         <v>3.85</v>
@@ -1894,16 +1894,16 @@
         <v>3.9</v>
       </c>
       <c r="J11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.15</v>
       </c>
       <c r="L11" t="n">
         <v>1.55</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
         <v>3</v>
@@ -1921,25 +1921,25 @@
         <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T11" t="n">
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V11" t="n">
         <v>1.34</v>
       </c>
       <c r="W11" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>26</v>
@@ -1954,19 +1954,19 @@
         <v>6.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
         <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>75</v>
@@ -1984,7 +1984,7 @@
         <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
         <v>70</v>
@@ -2044,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
         <v>2.36</v>
@@ -2062,7 +2062,7 @@
         <v>2.12</v>
       </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
         <v>3.65</v>
@@ -2101,7 +2101,7 @@
         <v>38</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
         <v>36</v>
@@ -2110,16 +2110,16 @@
         <v>400</v>
       </c>
       <c r="AK12" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="n">
         <v>140</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AO12" t="n">
         <v>5.6</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G13" t="n">
         <v>1.73</v>
       </c>
       <c r="H13" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2170,52 +2170,52 @@
         <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB13" t="n">
         <v>8.800000000000001</v>
@@ -2224,28 +2224,28 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>70</v>
       </c>
       <c r="AF13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG13" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>9.6</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL13" t="n">
         <v>32</v>
@@ -2254,10 +2254,10 @@
         <v>90</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="G14" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2320,13 +2320,13 @@
         <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R14" t="n">
         <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T14" t="n">
         <v>1.93</v>
@@ -2338,34 +2338,34 @@
         <v>2.36</v>
       </c>
       <c r="W14" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>17.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG14" t="n">
         <v>22</v>
@@ -2377,16 +2377,16 @@
         <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
         <v>100</v>
@@ -2425,25 +2425,25 @@
         <v>1.97</v>
       </c>
       <c r="G15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.47</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
         <v>3.15</v>
@@ -2455,28 +2455,28 @@
         <v>1.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T15" t="n">
         <v>1.87</v>
       </c>
       <c r="U15" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V15" t="n">
         <v>1.21</v>
       </c>
       <c r="W15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2488,7 +2488,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.6</v>
+        <v>990</v>
       </c>
       <c r="AC15" t="n">
         <v>1000</v>
@@ -2500,13 +2500,13 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG15" t="n">
         <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7.4</v>
+        <v>1.25</v>
       </c>
       <c r="G2" t="n">
-        <v>7.6</v>
+        <v>1.26</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>1.51</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,94 +691,94 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
         <v>5.3</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.3</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>11.5</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>8.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13.5</v>
+        <v>1.49</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>1.52</v>
       </c>
       <c r="H3" t="n">
-        <v>1.39</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>1.41</v>
+        <v>9.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,88 +826,88 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="S3" t="n">
-        <v>5.8</v>
+        <v>1.23</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>1.07</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>6.2</v>
       </c>
-      <c r="AD3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>25</v>
-      </c>
       <c r="AI3" t="n">
-        <v>75</v>
+        <v>15.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>120</v>
+        <v>6.4</v>
       </c>
       <c r="AL3" t="n">
-        <v>170</v>
+        <v>7.4</v>
       </c>
       <c r="AM3" t="n">
-        <v>460</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>460</v>
+        <v>7.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -928,121 +928,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="H4" t="n">
+        <v>19</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S4" t="n">
         <v>6.4</v>
       </c>
-      <c r="I4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="T4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF4" t="n">
         <v>4.9</v>
       </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="X4" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13</v>
-      </c>
       <c r="AG4" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.3</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.28</v>
+        <v>4.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>2.62</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>2.64</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>2.64</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>1.78</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>2.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>1.21</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.05</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>3.65</v>
       </c>
       <c r="U5" t="n">
-        <v>2.44</v>
+        <v>1.34</v>
       </c>
       <c r="V5" t="n">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="W5" t="n">
-        <v>1.76</v>
+        <v>1.31</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>5</v>
       </c>
       <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF5" t="n">
         <v>24</v>
       </c>
-      <c r="AA5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>15</v>
-      </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="n">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="AL5" t="n">
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.31</v>
       </c>
       <c r="H6" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>22</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF6" t="n">
         <v>4.9</v>
       </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AG6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>360</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>490</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
         <v>34</v>
       </c>
-      <c r="AA6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AO6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>2.08</v>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.48</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>2.78</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>1.79</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>2.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.02</v>
+        <v>1.22</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>5.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>18</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>3.8</v>
       </c>
       <c r="U7" t="n">
-        <v>2.32</v>
+        <v>1.32</v>
       </c>
       <c r="V7" t="n">
-        <v>1.66</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>1.44</v>
+        <v>1.89</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.5</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>490</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>490</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>32</v>
       </c>
-      <c r="AB7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>55</v>
-      </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>490</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>30</v>
+        <v>890</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.97</v>
+        <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>2.36</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>2.54</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>2.56</v>
       </c>
       <c r="L8" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="N8" t="n">
-        <v>3.1</v>
+        <v>1.61</v>
       </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>2.62</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.36</v>
+        <v>6.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="S8" t="n">
-        <v>4.6</v>
+        <v>24</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>1.27</v>
       </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>3.85</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.5</v>
+        <v>44</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>460</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>18.5</v>
+        <v>160</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>850</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.12</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.14</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>2.26</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.44</v>
       </c>
       <c r="N9" t="n">
-        <v>4.2</v>
+        <v>1.49</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>2.96</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>1.13</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>8.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.03</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>32</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>4.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2.28</v>
+        <v>1.26</v>
       </c>
       <c r="V9" t="n">
-        <v>1.87</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>3.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="n">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>5.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>120</v>
       </c>
       <c r="AI9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.66</v>
+        <v>55</v>
       </c>
       <c r="G10" t="n">
-        <v>2.68</v>
+        <v>65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>1.13</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>1.14</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>10.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.44</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.99</v>
+        <v>2.98</v>
       </c>
       <c r="U10" t="n">
-        <v>1.99</v>
+        <v>1.47</v>
       </c>
       <c r="V10" t="n">
-        <v>1.43</v>
+        <v>8.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z10" t="n">
-        <v>20</v>
+        <v>4.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>60</v>
+        <v>6.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.6</v>
+        <v>14.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>85</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>1.86</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>5.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="O11" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="W11" t="n">
-        <v>1.71</v>
+        <v>2.2</v>
       </c>
       <c r="X11" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11</v>
       </c>
-      <c r="Z11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10.5</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH12" t="n">
         <v>11</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="AI12" t="n">
         <v>22</v>
       </c>
-      <c r="Y12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AJ12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK12" t="n">
         <v>38</v>
       </c>
-      <c r="AH12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>160</v>
-      </c>
       <c r="AL12" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,395 +2138,125 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I13" t="n">
         <v>5.9</v>
       </c>
-      <c r="I13" t="n">
-        <v>6</v>
-      </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>2.86</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="T13" t="n">
         <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>2.38</v>
+        <v>1.9</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Burnley</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Man Utd</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="X14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>CD Marathon</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO15" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,261 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CD Marathon</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-07.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>1.08</v>
       </c>
       <c r="G2" t="n">
-        <v>1.96</v>
+        <v>1.13</v>
       </c>
       <c r="H2" t="n">
-        <v>4.9</v>
+        <v>150</v>
       </c>
       <c r="I2" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>990</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.35</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.37</v>
-      </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>21</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>160</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.43</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.04</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC2" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
+        <v>370</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC2" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11</v>
-      </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>90</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
